--- a/VerveStacks_DEU/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
+++ b/VerveStacks_DEU/SuppXLS/scen_tsparameters_s5p5v5_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4A0BA0-0942-445A-A9E4-3F49CB6A5690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3353C3D6-E91A-45CA-A0A8-368E617A9B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2562,10 +2562,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1c0130h16,S1f0306h12,S1i0504h08,S1j0519h10,S1k0706h10,S1k0706h11,S2o1115h08,S3p1224h16,S1b0129h10,S1c0130h18,S1d0131h07,S1e0217h12,S1f0306h16,S1h0407h17,S1j0519h14,S1j0519h16,S2l1006h17,S2o1115h09,S3p1224h07,S3p1224h09,S3p1224h15,S1b0129h14,S1c0130h08,S1d0131h17,S1e0217h18,S1f0306h14,S1g0317h16,S1h0407h08,S1k0706h07,S2l1006h07,S2l1006h08,S2l1006h10,S2l1006h11,S2l1006h15,S2m1007h12,S2o1115h16,S3aH2,S1b0129h07,S1d0131h18,S1g0317h11,S1g0317h13,S1k0706h08,S1k0706h15,S2l1006h14,S2n1008h12,S2n1008h14,S2o1115h13,S1c0130h07,S1c0130h15,S1c0130h17,S1d0131h09,S1d0131h14,S1f0306h08,S1f0306h10,S1g0317h09,S1h0407h09,S2n1008h13,S2n1008h15,S1b0129h08,S1b0129h17,S1c0130h09,S1e0217h17,S1f0306h17,S1h0407h10,S1h0407h15,S1h0407h16,S1i0504h18,S1k0706h13,S2l1006h09,S2m1007h10,S2m1007h11,S2n1008h07,S2o1115h10,S2o1115h15,S3aH3,S1b0129h09,S1b0129h12,S1f0306h11,S1i0504h11,S1i0504h13,S1j0519h18,S2m1007h14,S2m1007h15,S1b0129h15,S1c0130h13,S1e0217h09,S1e0217h11,S1g0317h17,S1h0407h11,S1j0519h17,S2l1006h18,S2m1007h07,S2o1115h12,S1b0129h13,S1d0131h10,S1f0306h07,S1g0317h10,S1g0317h18,S1i0504h10,S1i0504h14,S1j0519h07,S2m1007h18,S2n1008h09,S2n1008h10,S2n1008h16,S3p1224h08,S3p1224h11,S1b0129h11,S1b0129h16,S1c0130h14,S1d0131h08,S1e0217h14,S1h0407h14,S1k0706h14,S2aH2,S2n1008h08,S2n1008h17,S3p1224h13,S1b0129h18,S1g0317h12,S1h0407h12,S1i0504h07,S1i0504h16,S1j0519h08,S1j0519h11,S1j0519h12,S1j0519h13,S1k0706h18,S2l1006h16,S2o1115h11,S2o1115h17,S2o1115h18,S3p1224h10,S1e0217h13,S1f0306h09,S1f0306h15,S1h0407h07,S1i0504h09,S1k0706h17,S2l1006h12,S2n1008h11,S3p1224h12,S1aH2,S1e0217h16,S1g0317h07,S1i0504h12,S1i0504h15,S1i0504h17,S1k0706h09,S2aH3,S2m1007h08,S2m1007h16,S2m1007h17,S3p1224h14,S1d0131h11,S1d0131h12,S1e0217h08,S1g0317h14,S1h0407h18,S2l1006h13,S2o1115h14,S1c0130h10,S1c0130h11,S1d0131h15,S1e0217h07,S1f0306h13,S1f0306h18,S1h0407h13,S1j0519h09,S1j0519h15,S1k0706h16,S2m1007h13,S1c0130h12,S1d0131h13,S1d0131h16,S1e0217h10,S1e0217h15,S1g0317h08,S1g0317h15,S1k0706h12,S2m1007h09,S2n1008h18,S2o1115h07,S3p1224h17,S3p1224h18</t>
-  </si>
-  <si>
-    <t>S1b0129h23,S1f0306h22,S1g0317h20,S1h0407h04,S1h0407h05,S1j0519h20,S1k0706h20,S1k0706h22,S2l1006h04,S2m1007h01,S2m1007h21,S2n1008h03,S2n1008h19,S1c0130h02,S1e0217h02,S1g0317h06,S1g0317h19,S1i0504h06,S1j0519h22,S1k0706h03,S2aH4,S2n1008h06,S3p1224h19,S1d0131h06,S1d0131h23,S1e0217h21,S1h0407h01,S1i0504h03,S1i0504h20,S1j0519h03,S1j0519h23,S1k0706h24,S2l1006h02,S2l1006h22,S2n1008h23,S2o1115h06,S1aH1,S1b0129h01,S1b0129h21,S1b0129h22,S1e0217h01,S1g0317h22,S1h0407h20,S1h0407h22,S1j0519h02,S1j0519h19,S2m1007h19,S2m1007h20,S2o1115h03,S2o1115h04,S3aH4,S3p1224h03,S1c0130h01,S1e0217h24,S1h0407h23,S1j0519h05,S1k0706h04,S1k0706h06,S2l1006h05,S2m1007h04,S2n1008h20,S3aH1,S1aH4,S1b0129h03,S1b0129h24,S1d0131h02,S1f0306h01,S1f0306h20,S1f0306h21,S1h0407h02,S1h0407h03,S1h0407h06,S1k0706h01,S2l1006h19,S2l1006h24,S2n1008h02,S2o1115h19,S1b0129h06,S1g0317h03,S1g0317h05,S1i0504h04,S1i0504h21,S2n1008h22,S3p1224h02,S1b0129h02,S1b0129h04,S1b0129h05,S1c0130h05,S1c0130h23,S1e0217h04,S1f0306h03,S1f0306h04,S1g0317h02,S1i0504h01,S1i0504h24,S1k0706h02,S2n1008h24,S2o1115h01,S1c0130h06,S1d0131h05,S1d0131h24,S1e0217h03,S1e0217h22,S1e0217h23,S1g0317h04,S1j0519h04,S1j0519h06,S1k0706h21,S2m1007h03,S2m1007h22,S2m1007h23,S2o1115h20,S1d0131h03,S1d0131h22,S1e0217h06,S1g0317h23,S1i0504h02,S1i0504h19,S1k0706h23,S2l1006h21,S2m1007h05,S2n1008h05,S2o1115h05,S3p1224h01,S3p1224h06,S1c0130h20,S1d0131h01,S1h0407h19,S1i0504h23,S2l1006h23,S2m1007h24,S3p1224h23,S1b0129h19,S1c0130h03,S1c0130h04,S1c0130h21,S1d0131h20,S1f0306h02,S1i0504h22,S1k0706h19,S2m1007h06,S2n1008h21,S2o1115h21,S1d0131h04,S1d0131h21,S1g0317h24,S1h0407h21,S1j0519h21,S2l1006h20,S2o1115h22,S3p1224h04,S3p1224h05,S3p1224h24,S1d0131h19,S1e0217h20,S1f0306h19,S1g0317h01,S1g0317h21,S1h0407h24,S2l1006h06,S2o1115h23,S2o1115h24,S1c0130h19,S1c0130h22,S1f0306h06,S1j0519h01,S1k0706h05,S2aH1,S2l1006h01,S2m1007h02,S2n1008h01,S3p1224h20,S1b0129h20,S1c0130h24,S1e0217h05,S1e0217h19,S1f0306h05,S1f0306h23,S1f0306h24,S1i0504h05,S1j0519h24,S2l1006h03,S2n1008h04,S2o1115h02,S3p1224h21,S3p1224h22</t>
+    <t>S1b0129h14,S1c0130h08,S1d0131h17,S1e0217h18,S1f0306h14,S1g0317h16,S1h0407h08,S1k0706h07,S2l1006h07,S2l1006h08,S2l1006h10,S2l1006h11,S2l1006h15,S2m1007h12,S2o1115h16,S3aH2,S1e0217h13,S1f0306h09,S1f0306h15,S1h0407h07,S1i0504h09,S1k0706h17,S2l1006h12,S2n1008h11,S3p1224h12,S1b0129h08,S1b0129h17,S1c0130h09,S1e0217h17,S1f0306h17,S1h0407h10,S1h0407h15,S1h0407h16,S1i0504h18,S1k0706h13,S2l1006h09,S2m1007h10,S2m1007h11,S2n1008h07,S2o1115h10,S2o1115h15,S3aH3,S1b0129h09,S1b0129h12,S1f0306h11,S1i0504h11,S1i0504h13,S1j0519h18,S2m1007h14,S2m1007h15,S1b0129h18,S1g0317h12,S1h0407h12,S1i0504h07,S1i0504h16,S1j0519h08,S1j0519h11,S1j0519h12,S1j0519h13,S1k0706h18,S2l1006h16,S2o1115h11,S2o1115h17,S2o1115h18,S3p1224h10,S1b0129h15,S1c0130h13,S1e0217h09,S1e0217h11,S1g0317h17,S1h0407h11,S1j0519h17,S2l1006h18,S2m1007h07,S2o1115h12,S1c0130h12,S1d0131h13,S1d0131h16,S1e0217h10,S1e0217h15,S1g0317h08,S1g0317h15,S1k0706h12,S2m1007h09,S2n1008h18,S2o1115h07,S3p1224h17,S3p1224h18,S1c0130h07,S1c0130h15,S1c0130h17,S1d0131h09,S1d0131h14,S1f0306h08,S1f0306h10,S1g0317h09,S1h0407h09,S2n1008h13,S2n1008h15,S1b0129h10,S1c0130h18,S1d0131h07,S1e0217h12,S1f0306h16,S1h0407h17,S1j0519h14,S1j0519h16,S2l1006h17,S2o1115h09,S3p1224h07,S3p1224h09,S3p1224h15,S1b0129h13,S1d0131h10,S1f0306h07,S1g0317h10,S1g0317h18,S1i0504h10,S1i0504h14,S1j0519h07,S2m1007h18,S2n1008h09,S2n1008h10,S2n1008h16,S3p1224h08,S3p1224h11,S1b0129h07,S1d0131h18,S1g0317h11,S1g0317h13,S1k0706h08,S1k0706h15,S2l1006h14,S2n1008h12,S2n1008h14,S2o1115h13,S1aH3,S1c0130h16,S1f0306h12,S1i0504h08,S1j0519h10,S1k0706h10,S1k0706h11,S2o1115h08,S3p1224h16,S1c0130h10,S1c0130h11,S1d0131h15,S1e0217h07,S1f0306h13,S1f0306h18,S1h0407h13,S1j0519h09,S1j0519h15,S1k0706h16,S2m1007h13,S1b0129h11,S1b0129h16,S1c0130h14,S1d0131h08,S1e0217h14,S1h0407h14,S1k0706h14,S2aH2,S2n1008h08,S2n1008h17,S3p1224h13,S1aH2,S1e0217h16,S1g0317h07,S1i0504h12,S1i0504h15,S1i0504h17,S1k0706h09,S2aH3,S2m1007h08,S2m1007h16,S2m1007h17,S3p1224h14,S1d0131h11,S1d0131h12,S1e0217h08,S1g0317h14,S1h0407h18,S2l1006h13,S2o1115h14</t>
+  </si>
+  <si>
+    <t>S1d0131h06,S1d0131h23,S1e0217h21,S1h0407h01,S1i0504h03,S1i0504h20,S1j0519h03,S1j0519h23,S1k0706h24,S2l1006h02,S2l1006h22,S2n1008h23,S2o1115h06,S1b0129h19,S1c0130h03,S1c0130h04,S1c0130h21,S1d0131h20,S1f0306h02,S1i0504h22,S1k0706h19,S2m1007h06,S2n1008h21,S2o1115h21,S1aH4,S1b0129h03,S1b0129h24,S1d0131h02,S1f0306h01,S1f0306h20,S1f0306h21,S1h0407h02,S1h0407h03,S1h0407h06,S1k0706h01,S2l1006h19,S2l1006h24,S2n1008h02,S2o1115h19,S1b0129h06,S1g0317h03,S1g0317h05,S1i0504h04,S1i0504h21,S2n1008h22,S3p1224h02,S1c0130h20,S1d0131h01,S1h0407h19,S1i0504h23,S2l1006h23,S2m1007h24,S3p1224h23,S1b0129h02,S1b0129h04,S1b0129h05,S1c0130h05,S1c0130h23,S1e0217h04,S1f0306h03,S1f0306h04,S1g0317h02,S1i0504h01,S1i0504h24,S1k0706h02,S2n1008h24,S2o1115h01,S1b0129h20,S1c0130h24,S1e0217h05,S1e0217h19,S1f0306h05,S1f0306h23,S1f0306h24,S1i0504h05,S1j0519h24,S2l1006h03,S2n1008h04,S2o1115h02,S3p1224h21,S3p1224h22,S1c0130h01,S1e0217h24,S1h0407h23,S1j0519h05,S1k0706h04,S1k0706h06,S2l1006h05,S2m1007h04,S2n1008h20,S3aH1,S1c0130h02,S1e0217h02,S1g0317h06,S1g0317h19,S1i0504h06,S1j0519h22,S1k0706h03,S2aH4,S2n1008h06,S3p1224h19,S1c0130h06,S1d0131h05,S1d0131h24,S1e0217h03,S1e0217h22,S1e0217h23,S1g0317h04,S1j0519h04,S1j0519h06,S1k0706h21,S2m1007h03,S2m1007h22,S2m1007h23,S2o1115h20,S1aH1,S1b0129h01,S1b0129h21,S1b0129h22,S1e0217h01,S1g0317h22,S1h0407h20,S1h0407h22,S1j0519h02,S1j0519h19,S2m1007h19,S2m1007h20,S2o1115h03,S2o1115h04,S3aH4,S3p1224h03,S1b0129h23,S1f0306h22,S1g0317h20,S1h0407h04,S1h0407h05,S1j0519h20,S1k0706h20,S1k0706h22,S2l1006h04,S2m1007h01,S2m1007h21,S2n1008h03,S2n1008h19,S1c0130h19,S1c0130h22,S1f0306h06,S1j0519h01,S1k0706h05,S2aH1,S2l1006h01,S2m1007h02,S2n1008h01,S3p1224h20,S1d0131h03,S1d0131h22,S1e0217h06,S1g0317h23,S1i0504h02,S1i0504h19,S1k0706h23,S2l1006h21,S2m1007h05,S2n1008h05,S2o1115h05,S3p1224h01,S3p1224h06,S1d0131h04,S1d0131h21,S1g0317h24,S1h0407h21,S1j0519h21,S2l1006h20,S2o1115h22,S3p1224h04,S3p1224h05,S3p1224h24,S1d0131h19,S1e0217h20,S1f0306h19,S1g0317h01,S1g0317h21,S1h0407h24,S2l1006h06,S2o1115h23,S2o1115h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -2593,10 +2593,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2804,7 +2803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2826,16 +2825,14 @@
     <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -2880,7 +2877,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A6CBAC-7FCD-E917-C8A5-E6D6253C24B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAA5E34-D703-F0C8-934C-1A79004713E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3288,7 +3285,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0129h23,S1f0306h22,S1g0317h20,S1h0407h04,S1h0407h05,S1j0519h20,S1k0706h20,S1k0706h22,S2l1006h04,S2m1007h01,S2m1007h21,S2n1008h03,S2n1008h19,S1c0130h02,S1e0217h02,S1g0317h06,S1g0317h19,S1i0504h06,S1j0519h22,S1k0706h03,S2aH4,S2n1008h06,S3p1224h19,S1d0131h06,S1d0131h23,S1e0217h21,S1h0407h01,S1i0504h03,S1i0504h20,S1j0519h03,S1j0519h23,S1k0706h24,S2l1006h02,S2l1006h22,S2n1008h23,S2o1115h06,S1aH1,S1b0129h01,S1b0129h21,S1b0129h22,S1e0217h01,S1g0317h22,S1h0407h20,S1h0407h22,S1j0519h02,S1j0519h19,S2m1007h19,S2m1007h20,S2o1115h03,S2o1115h04,S3aH4,S3p1224h03,S1c0130h01,S1e0217h24,S1h0407h23,S1j0519h05,S1k0706h04,S1k0706h06,S2l1006h05,S2m1007h04,S2n1008h20,S3aH1,S1aH4,S1b0129h03,S1b0129h24,S1d0131h02,S1f0306h01,S1f0306h20,S1f0306h21,S1h0407h02,S1h0407h03,S1h0407h06,S1k0706h01,S2l1006h19,S2l1006h24,S2n1008h02,S2o1115h19,S1b0129h06,S1g0317h03,S1g0317h05,S1i0504h04,S1i0504h21,S2n1008h22,S3p1224h02,S1b0129h02,S1b0129h04,S1b0129h05,S1c0130h05,S1c0130h23,S1e0217h04,S1f0306h03,S1f0306h04,S1g0317h02,S1i0504h01,S1i0504h24,S1k0706h02,S2n1008h24,S2o1115h01,S1c0130h06,S1d0131h05,S1d0131h24,S1e0217h03,S1e0217h22,S1e0217h23,S1g0317h04,S1j0519h04,S1j0519h06,S1k0706h21,S2m1007h03,S2m1007h22,S2m1007h23,S2o1115h20,S1d0131h03,S1d0131h22,S1e0217h06,S1g0317h23,S1i0504h02,S1i0504h19,S1k0706h23,S2l1006h21,S2m1007h05,S2n1008h05,S2o1115h05,S3p1224h01,S3p1224h06,S1c0130h20,S1d0131h01,S1h0407h19,S1i0504h23,S2l1006h23,S2m1007h24,S3p1224h23,S1b0129h19,S1c0130h03,S1c0130h04,S1c0130h21,S1d0131h20,S1f0306h02,S1i0504h22,S1k0706h19,S2m1007h06,S2n1008h21,S2o1115h21,S1d0131h04,S1d0131h21,S1g0317h24,S1h0407h21,S1j0519h21,S2l1006h20,S2o1115h22,S3p1224h04,S3p1224h05,S3p1224h24,S1d0131h19,S1e0217h20,S1f0306h19,S1g0317h01,S1g0317h21,S1h0407h24,S2l1006h06,S2o1115h23,S2o1115h24,S1c0130h19,S1c0130h22,S1f0306h06,S1j0519h01,S1k0706h05,S2aH1,S2l1006h01,S2m1007h02,S2n1008h01,S3p1224h20,S1b0129h20,S1c0130h24,S1e0217h05,S1e0217h19,S1f0306h05,S1f0306h23,S1f0306h24,S1i0504h05,S1j0519h24,S2l1006h03,S2n1008h04,S2o1115h02,S3p1224h21,S3p1224h22</v>
+        <v>S1d0131h06,S1d0131h23,S1e0217h21,S1h0407h01,S1i0504h03,S1i0504h20,S1j0519h03,S1j0519h23,S1k0706h24,S2l1006h02,S2l1006h22,S2n1008h23,S2o1115h06,S1b0129h19,S1c0130h03,S1c0130h04,S1c0130h21,S1d0131h20,S1f0306h02,S1i0504h22,S1k0706h19,S2m1007h06,S2n1008h21,S2o1115h21,S1aH4,S1b0129h03,S1b0129h24,S1d0131h02,S1f0306h01,S1f0306h20,S1f0306h21,S1h0407h02,S1h0407h03,S1h0407h06,S1k0706h01,S2l1006h19,S2l1006h24,S2n1008h02,S2o1115h19,S1b0129h06,S1g0317h03,S1g0317h05,S1i0504h04,S1i0504h21,S2n1008h22,S3p1224h02,S1c0130h20,S1d0131h01,S1h0407h19,S1i0504h23,S2l1006h23,S2m1007h24,S3p1224h23,S1b0129h02,S1b0129h04,S1b0129h05,S1c0130h05,S1c0130h23,S1e0217h04,S1f0306h03,S1f0306h04,S1g0317h02,S1i0504h01,S1i0504h24,S1k0706h02,S2n1008h24,S2o1115h01,S1b0129h20,S1c0130h24,S1e0217h05,S1e0217h19,S1f0306h05,S1f0306h23,S1f0306h24,S1i0504h05,S1j0519h24,S2l1006h03,S2n1008h04,S2o1115h02,S3p1224h21,S3p1224h22,S1c0130h01,S1e0217h24,S1h0407h23,S1j0519h05,S1k0706h04,S1k0706h06,S2l1006h05,S2m1007h04,S2n1008h20,S3aH1,S1c0130h02,S1e0217h02,S1g0317h06,S1g0317h19,S1i0504h06,S1j0519h22,S1k0706h03,S2aH4,S2n1008h06,S3p1224h19,S1c0130h06,S1d0131h05,S1d0131h24,S1e0217h03,S1e0217h22,S1e0217h23,S1g0317h04,S1j0519h04,S1j0519h06,S1k0706h21,S2m1007h03,S2m1007h22,S2m1007h23,S2o1115h20,S1aH1,S1b0129h01,S1b0129h21,S1b0129h22,S1e0217h01,S1g0317h22,S1h0407h20,S1h0407h22,S1j0519h02,S1j0519h19,S2m1007h19,S2m1007h20,S2o1115h03,S2o1115h04,S3aH4,S3p1224h03,S1b0129h23,S1f0306h22,S1g0317h20,S1h0407h04,S1h0407h05,S1j0519h20,S1k0706h20,S1k0706h22,S2l1006h04,S2m1007h01,S2m1007h21,S2n1008h03,S2n1008h19,S1c0130h19,S1c0130h22,S1f0306h06,S1j0519h01,S1k0706h05,S2aH1,S2l1006h01,S2m1007h02,S2n1008h01,S3p1224h20,S1d0131h03,S1d0131h22,S1e0217h06,S1g0317h23,S1i0504h02,S1i0504h19,S1k0706h23,S2l1006h21,S2m1007h05,S2n1008h05,S2o1115h05,S3p1224h01,S3p1224h06,S1d0131h04,S1d0131h21,S1g0317h24,S1h0407h21,S1j0519h21,S2l1006h20,S2o1115h22,S3p1224h04,S3p1224h05,S3p1224h24,S1d0131h19,S1e0217h20,S1f0306h19,S1g0317h01,S1g0317h21,S1h0407h24,S2l1006h06,S2o1115h23,S2o1115h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3320,7 +3317,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1c0130h16,S1f0306h12,S1i0504h08,S1j0519h10,S1k0706h10,S1k0706h11,S2o1115h08,S3p1224h16,S1b0129h10,S1c0130h18,S1d0131h07,S1e0217h12,S1f0306h16,S1h0407h17,S1j0519h14,S1j0519h16,S2l1006h17,S2o1115h09,S3p1224h07,S3p1224h09,S3p1224h15,S1b0129h14,S1c0130h08,S1d0131h17,S1e0217h18,S1f0306h14,S1g0317h16,S1h0407h08,S1k0706h07,S2l1006h07,S2l1006h08,S2l1006h10,S2l1006h11,S2l1006h15,S2m1007h12,S2o1115h16,S3aH2,S1b0129h07,S1d0131h18,S1g0317h11,S1g0317h13,S1k0706h08,S1k0706h15,S2l1006h14,S2n1008h12,S2n1008h14,S2o1115h13,S1c0130h07,S1c0130h15,S1c0130h17,S1d0131h09,S1d0131h14,S1f0306h08,S1f0306h10,S1g0317h09,S1h0407h09,S2n1008h13,S2n1008h15,S1b0129h08,S1b0129h17,S1c0130h09,S1e0217h17,S1f0306h17,S1h0407h10,S1h0407h15,S1h0407h16,S1i0504h18,S1k0706h13,S2l1006h09,S2m1007h10,S2m1007h11,S2n1008h07,S2o1115h10,S2o1115h15,S3aH3,S1b0129h09,S1b0129h12,S1f0306h11,S1i0504h11,S1i0504h13,S1j0519h18,S2m1007h14,S2m1007h15,S1b0129h15,S1c0130h13,S1e0217h09,S1e0217h11,S1g0317h17,S1h0407h11,S1j0519h17,S2l1006h18,S2m1007h07,S2o1115h12,S1b0129h13,S1d0131h10,S1f0306h07,S1g0317h10,S1g0317h18,S1i0504h10,S1i0504h14,S1j0519h07,S2m1007h18,S2n1008h09,S2n1008h10,S2n1008h16,S3p1224h08,S3p1224h11,S1b0129h11,S1b0129h16,S1c0130h14,S1d0131h08,S1e0217h14,S1h0407h14,S1k0706h14,S2aH2,S2n1008h08,S2n1008h17,S3p1224h13,S1b0129h18,S1g0317h12,S1h0407h12,S1i0504h07,S1i0504h16,S1j0519h08,S1j0519h11,S1j0519h12,S1j0519h13,S1k0706h18,S2l1006h16,S2o1115h11,S2o1115h17,S2o1115h18,S3p1224h10,S1e0217h13,S1f0306h09,S1f0306h15,S1h0407h07,S1i0504h09,S1k0706h17,S2l1006h12,S2n1008h11,S3p1224h12,S1aH2,S1e0217h16,S1g0317h07,S1i0504h12,S1i0504h15,S1i0504h17,S1k0706h09,S2aH3,S2m1007h08,S2m1007h16,S2m1007h17,S3p1224h14,S1d0131h11,S1d0131h12,S1e0217h08,S1g0317h14,S1h0407h18,S2l1006h13,S2o1115h14,S1c0130h10,S1c0130h11,S1d0131h15,S1e0217h07,S1f0306h13,S1f0306h18,S1h0407h13,S1j0519h09,S1j0519h15,S1k0706h16,S2m1007h13,S1c0130h12,S1d0131h13,S1d0131h16,S1e0217h10,S1e0217h15,S1g0317h08,S1g0317h15,S1k0706h12,S2m1007h09,S2n1008h18,S2o1115h07,S3p1224h17,S3p1224h18</v>
+        <v>S1b0129h14,S1c0130h08,S1d0131h17,S1e0217h18,S1f0306h14,S1g0317h16,S1h0407h08,S1k0706h07,S2l1006h07,S2l1006h08,S2l1006h10,S2l1006h11,S2l1006h15,S2m1007h12,S2o1115h16,S3aH2,S1e0217h13,S1f0306h09,S1f0306h15,S1h0407h07,S1i0504h09,S1k0706h17,S2l1006h12,S2n1008h11,S3p1224h12,S1b0129h08,S1b0129h17,S1c0130h09,S1e0217h17,S1f0306h17,S1h0407h10,S1h0407h15,S1h0407h16,S1i0504h18,S1k0706h13,S2l1006h09,S2m1007h10,S2m1007h11,S2n1008h07,S2o1115h10,S2o1115h15,S3aH3,S1b0129h09,S1b0129h12,S1f0306h11,S1i0504h11,S1i0504h13,S1j0519h18,S2m1007h14,S2m1007h15,S1b0129h18,S1g0317h12,S1h0407h12,S1i0504h07,S1i0504h16,S1j0519h08,S1j0519h11,S1j0519h12,S1j0519h13,S1k0706h18,S2l1006h16,S2o1115h11,S2o1115h17,S2o1115h18,S3p1224h10,S1b0129h15,S1c0130h13,S1e0217h09,S1e0217h11,S1g0317h17,S1h0407h11,S1j0519h17,S2l1006h18,S2m1007h07,S2o1115h12,S1c0130h12,S1d0131h13,S1d0131h16,S1e0217h10,S1e0217h15,S1g0317h08,S1g0317h15,S1k0706h12,S2m1007h09,S2n1008h18,S2o1115h07,S3p1224h17,S3p1224h18,S1c0130h07,S1c0130h15,S1c0130h17,S1d0131h09,S1d0131h14,S1f0306h08,S1f0306h10,S1g0317h09,S1h0407h09,S2n1008h13,S2n1008h15,S1b0129h10,S1c0130h18,S1d0131h07,S1e0217h12,S1f0306h16,S1h0407h17,S1j0519h14,S1j0519h16,S2l1006h17,S2o1115h09,S3p1224h07,S3p1224h09,S3p1224h15,S1b0129h13,S1d0131h10,S1f0306h07,S1g0317h10,S1g0317h18,S1i0504h10,S1i0504h14,S1j0519h07,S2m1007h18,S2n1008h09,S2n1008h10,S2n1008h16,S3p1224h08,S3p1224h11,S1b0129h07,S1d0131h18,S1g0317h11,S1g0317h13,S1k0706h08,S1k0706h15,S2l1006h14,S2n1008h12,S2n1008h14,S2o1115h13,S1aH3,S1c0130h16,S1f0306h12,S1i0504h08,S1j0519h10,S1k0706h10,S1k0706h11,S2o1115h08,S3p1224h16,S1c0130h10,S1c0130h11,S1d0131h15,S1e0217h07,S1f0306h13,S1f0306h18,S1h0407h13,S1j0519h09,S1j0519h15,S1k0706h16,S2m1007h13,S1b0129h11,S1b0129h16,S1c0130h14,S1d0131h08,S1e0217h14,S1h0407h14,S1k0706h14,S2aH2,S2n1008h08,S2n1008h17,S3p1224h13,S1aH2,S1e0217h16,S1g0317h07,S1i0504h12,S1i0504h15,S1i0504h17,S1k0706h09,S2aH3,S2m1007h08,S2m1007h16,S2m1007h17,S3p1224h14,S1d0131h11,S1d0131h12,S1e0217h08,S1g0317h14,S1h0407h18,S2l1006h13,S2o1115h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3933,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19845B3D-86DE-4481-97FB-AD341CF16057}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E29C8E7-0362-4D23-A552-06521E17B8DB}">
   <dimension ref="B2:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6985,7 +6982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB201A92-16DD-4038-BE98-5F0DB0987A68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63899ACB-20DA-479A-9F52-A9F3C85C7740}">
   <dimension ref="A1:S382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7004,16 +7001,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>834</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="11" t="s">
@@ -7066,13 +7063,13 @@
       <c r="O10" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="R10" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>847</v>
       </c>
     </row>
@@ -7104,8 +7101,8 @@
       <c r="L11" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="M11" s="17">
-        <v>1018.1046674686489</v>
+      <c r="M11" s="14">
+        <v>0.21205232432038995</v>
       </c>
       <c r="N11" s="13" t="s">
         <v>461</v>
@@ -7113,13 +7110,13 @@
       <c r="O11" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <v>8.4099424771755762E-2</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="19" t="s">
         <v>848</v>
       </c>
     </row>
@@ -7151,8 +7148,8 @@
       <c r="L12" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="M12" s="18">
-        <v>124.55788795199409</v>
+      <c r="M12" s="16">
+        <v>2.5831800089417521E-2</v>
       </c>
       <c r="N12" s="15" t="s">
         <v>461</v>
@@ -7160,13 +7157,13 @@
       <c r="O12" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="Q12" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="24">
-        <v>0.95029816876880024</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="Q12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0.16560240645944377</v>
+      </c>
+      <c r="S12" s="21" t="s">
         <v>848</v>
       </c>
     </row>
@@ -7198,8 +7195,8 @@
       <c r="L13" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="M13" s="17">
-        <v>901.55316058994777</v>
+      <c r="M13" s="14">
+        <v>0.187326442205937</v>
       </c>
       <c r="N13" s="13" t="s">
         <v>461</v>
@@ -7207,13 +7204,13 @@
       <c r="O13" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="Q13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" s="22">
-        <v>0.16560240645944377</v>
-      </c>
-      <c r="S13" s="21" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="20">
+        <v>0.95029816876880036</v>
+      </c>
+      <c r="S13" s="19" t="s">
         <v>848</v>
       </c>
     </row>
@@ -7245,8 +7242,8 @@
       <c r="L14" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="M14" s="18">
-        <v>1059.7158146923173</v>
+      <c r="M14" s="16">
+        <v>0.22061811698009912</v>
       </c>
       <c r="N14" s="15" t="s">
         <v>461</v>
@@ -7283,8 +7280,8 @@
       <c r="L15" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="M15" s="17">
-        <v>1</v>
+      <c r="M15" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>461</v>
@@ -7321,8 +7318,8 @@
       <c r="L16" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="M16" s="18">
-        <v>1</v>
+      <c r="M16" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N16" s="15" t="s">
         <v>461</v>
@@ -7359,8 +7356,8 @@
       <c r="L17" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="M17" s="17">
-        <v>1</v>
+      <c r="M17" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>461</v>
@@ -7397,8 +7394,8 @@
       <c r="L18" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="M18" s="18">
-        <v>1</v>
+      <c r="M18" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N18" s="15" t="s">
         <v>461</v>
@@ -7435,8 +7432,8 @@
       <c r="L19" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="M19" s="17">
-        <v>1</v>
+      <c r="M19" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>461</v>
@@ -7473,8 +7470,8 @@
       <c r="L20" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="M20" s="18">
-        <v>1</v>
+      <c r="M20" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N20" s="15" t="s">
         <v>461</v>
@@ -7511,8 +7508,8 @@
       <c r="L21" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="M21" s="17">
-        <v>1</v>
+      <c r="M21" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>461</v>
@@ -7549,8 +7546,8 @@
       <c r="L22" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="M22" s="18">
-        <v>1</v>
+      <c r="M22" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N22" s="15" t="s">
         <v>461</v>
@@ -7587,8 +7584,8 @@
       <c r="L23" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="M23" s="17">
-        <v>1</v>
+      <c r="M23" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N23" s="13" t="s">
         <v>461</v>
@@ -7625,8 +7622,8 @@
       <c r="L24" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="M24" s="18">
-        <v>1</v>
+      <c r="M24" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N24" s="15" t="s">
         <v>461</v>
@@ -7663,8 +7660,8 @@
       <c r="L25" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="M25" s="17">
-        <v>1</v>
+      <c r="M25" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N25" s="13" t="s">
         <v>461</v>
@@ -7701,8 +7698,8 @@
       <c r="L26" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="M26" s="18">
-        <v>1</v>
+      <c r="M26" s="16">
+        <v>2.21985213813E-4</v>
       </c>
       <c r="N26" s="15" t="s">
         <v>461</v>
@@ -7739,8 +7736,8 @@
       <c r="L27" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="M27" s="17">
-        <v>0.99978580355989377</v>
+      <c r="M27" s="14">
+        <v>2.217161491626E-4</v>
       </c>
       <c r="N27" s="13" t="s">
         <v>461</v>
@@ -7777,8 +7774,8 @@
       <c r="L28" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="M28" s="18">
-        <v>0.99683021534093497</v>
+      <c r="M28" s="16">
+        <v>2.207209086441E-4</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>461</v>
@@ -7815,8 +7812,8 @@
       <c r="L29" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="M29" s="17">
-        <v>0.99421947844338543</v>
+      <c r="M29" s="14">
+        <v>2.202373682608E-4</v>
       </c>
       <c r="N29" s="13" t="s">
         <v>461</v>
@@ -7853,8 +7850,8 @@
       <c r="L30" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="M30" s="18">
-        <v>0.9931418475179068</v>
+      <c r="M30" s="16">
+        <v>2.2006829781840001E-4</v>
       </c>
       <c r="N30" s="15" t="s">
         <v>461</v>
@@ -7891,8 +7888,8 @@
       <c r="L31" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="M31" s="17">
-        <v>0.99403756864968484</v>
+      <c r="M31" s="14">
+        <v>2.1509450795899999E-4</v>
       </c>
       <c r="N31" s="13" t="s">
         <v>461</v>
@@ -7929,8 +7926,8 @@
       <c r="L32" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="M32" s="18">
-        <v>0.96793963547850759</v>
+      <c r="M32" s="16">
+        <v>2.0329463186220001E-4</v>
       </c>
       <c r="N32" s="15" t="s">
         <v>461</v>
@@ -7967,8 +7964,8 @@
       <c r="L33" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="M33" s="17">
-        <v>0.96092785364445998</v>
+      <c r="M33" s="14">
+        <v>2.0090001256310001E-4</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>461</v>
@@ -8005,8 +8002,8 @@
       <c r="L34" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="M34" s="18">
-        <v>0.96610829811779841</v>
+      <c r="M34" s="16">
+        <v>2.0330182261880001E-4</v>
       </c>
       <c r="N34" s="15" t="s">
         <v>461</v>
@@ -8043,8 +8040,8 @@
       <c r="L35" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="M35" s="17">
-        <v>1</v>
+      <c r="M35" s="14">
+        <v>2.211573528037E-4</v>
       </c>
       <c r="N35" s="13" t="s">
         <v>461</v>
@@ -8081,8 +8078,8 @@
       <c r="L36" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="M36" s="18">
-        <v>1</v>
+      <c r="M36" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N36" s="15" t="s">
         <v>461</v>
@@ -8119,8 +8116,8 @@
       <c r="L37" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="M37" s="17">
-        <v>1</v>
+      <c r="M37" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N37" s="13" t="s">
         <v>461</v>
@@ -8157,8 +8154,8 @@
       <c r="L38" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="M38" s="18">
-        <v>1</v>
+      <c r="M38" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N38" s="15" t="s">
         <v>461</v>
@@ -8195,8 +8192,8 @@
       <c r="L39" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="M39" s="17">
-        <v>1</v>
+      <c r="M39" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N39" s="13" t="s">
         <v>461</v>
@@ -8233,8 +8230,8 @@
       <c r="L40" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="M40" s="18">
-        <v>1</v>
+      <c r="M40" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N40" s="15" t="s">
         <v>461</v>
@@ -8271,8 +8268,8 @@
       <c r="L41" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="M41" s="17">
-        <v>1</v>
+      <c r="M41" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N41" s="13" t="s">
         <v>461</v>
@@ -8309,8 +8306,8 @@
       <c r="L42" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="M42" s="18">
-        <v>1</v>
+      <c r="M42" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N42" s="15" t="s">
         <v>461</v>
@@ -8347,8 +8344,8 @@
       <c r="L43" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="M43" s="17">
-        <v>1</v>
+      <c r="M43" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N43" s="13" t="s">
         <v>461</v>
@@ -8385,8 +8382,8 @@
       <c r="L44" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="M44" s="18">
-        <v>1</v>
+      <c r="M44" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N44" s="15" t="s">
         <v>461</v>
@@ -8423,8 +8420,8 @@
       <c r="L45" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="M45" s="17">
-        <v>1</v>
+      <c r="M45" s="14">
+        <v>2.1997249932630001E-4</v>
       </c>
       <c r="N45" s="13" t="s">
         <v>461</v>
@@ -8461,8 +8458,8 @@
       <c r="L46" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="M46" s="18">
-        <v>1</v>
+      <c r="M46" s="16">
+        <v>2.2048418371319999E-4</v>
       </c>
       <c r="N46" s="15" t="s">
         <v>461</v>
@@ -8499,8 +8496,8 @@
       <c r="L47" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="M47" s="17">
-        <v>0.87705508160805623</v>
+      <c r="M47" s="14">
+        <v>1.737629315259E-4</v>
       </c>
       <c r="N47" s="13" t="s">
         <v>461</v>
@@ -8537,8 +8534,8 @@
       <c r="L48" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="M48" s="18">
-        <v>0.6027185163384855</v>
+      <c r="M48" s="16">
+        <v>1.1972120699450001E-4</v>
       </c>
       <c r="N48" s="15" t="s">
         <v>461</v>
@@ -8575,8 +8572,8 @@
       <c r="L49" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="M49" s="17">
-        <v>0.90381849842049056</v>
+      <c r="M49" s="14">
+        <v>1.921535616116E-4</v>
       </c>
       <c r="N49" s="13" t="s">
         <v>461</v>
@@ -8613,8 +8610,8 @@
       <c r="L50" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="M50" s="18">
-        <v>1</v>
+      <c r="M50" s="16">
+        <v>2.2199566883339999E-4</v>
       </c>
       <c r="N50" s="15" t="s">
         <v>461</v>
@@ -8651,8 +8648,8 @@
       <c r="L51" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="M51" s="17">
-        <v>1</v>
+      <c r="M51" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N51" s="13" t="s">
         <v>461</v>
@@ -8689,8 +8686,8 @@
       <c r="L52" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="M52" s="18">
-        <v>1</v>
+      <c r="M52" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N52" s="15" t="s">
         <v>461</v>
@@ -8727,8 +8724,8 @@
       <c r="L53" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="M53" s="17">
-        <v>1</v>
+      <c r="M53" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N53" s="13" t="s">
         <v>461</v>
@@ -8765,8 +8762,8 @@
       <c r="L54" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="M54" s="18">
-        <v>1</v>
+      <c r="M54" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N54" s="15" t="s">
         <v>461</v>
@@ -8803,8 +8800,8 @@
       <c r="L55" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="M55" s="17">
-        <v>1</v>
+      <c r="M55" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N55" s="13" t="s">
         <v>461</v>
@@ -8841,8 +8838,8 @@
       <c r="L56" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="M56" s="18">
-        <v>1</v>
+      <c r="M56" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N56" s="15" t="s">
         <v>461</v>
@@ -8879,8 +8876,8 @@
       <c r="L57" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="M57" s="17">
-        <v>1</v>
+      <c r="M57" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N57" s="13" t="s">
         <v>461</v>
@@ -8917,8 +8914,8 @@
       <c r="L58" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="M58" s="18">
-        <v>1</v>
+      <c r="M58" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N58" s="15" t="s">
         <v>461</v>
@@ -8955,8 +8952,8 @@
       <c r="L59" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="M59" s="17">
-        <v>1</v>
+      <c r="M59" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N59" s="13" t="s">
         <v>461</v>
@@ -8993,8 +8990,8 @@
       <c r="L60" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="M60" s="18">
-        <v>1</v>
+      <c r="M60" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N60" s="15" t="s">
         <v>461</v>
@@ -9031,8 +9028,8 @@
       <c r="L61" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="M61" s="17">
-        <v>1</v>
+      <c r="M61" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N61" s="13" t="s">
         <v>461</v>
@@ -9069,8 +9066,8 @@
       <c r="L62" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="M62" s="18">
-        <v>0.86161720340781334</v>
+      <c r="M62" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N62" s="15" t="s">
         <v>461</v>
@@ -9107,8 +9104,8 @@
       <c r="L63" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="M63" s="17">
-        <v>0.40220779012646518</v>
+      <c r="M63" s="14">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N63" s="13" t="s">
         <v>461</v>
@@ -9145,8 +9142,8 @@
       <c r="L64" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="M64" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M64" s="16">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N64" s="15" t="s">
         <v>461</v>
@@ -9183,8 +9180,8 @@
       <c r="L65" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="M65" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M65" s="14">
+        <v>8.9143233160668748E-5</v>
       </c>
       <c r="N65" s="13" t="s">
         <v>461</v>
@@ -9221,8 +9218,8 @@
       <c r="L66" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="M66" s="18">
-        <v>2.17616795151395E-2</v>
+      <c r="M66" s="16">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N66" s="15" t="s">
         <v>461</v>
@@ -9259,8 +9256,8 @@
       <c r="L67" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="M67" s="17">
-        <v>2.17616795151395E-2</v>
+      <c r="M67" s="14">
+        <v>1.3779084353459999E-4</v>
       </c>
       <c r="N67" s="13" t="s">
         <v>461</v>
@@ -9297,8 +9294,8 @@
       <c r="L68" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="M68" s="18">
-        <v>0.64273171641841242</v>
+      <c r="M68" s="16">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N68" s="15" t="s">
         <v>461</v>
@@ -9335,8 +9332,8 @@
       <c r="L69" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="M69" s="17">
-        <v>1</v>
+      <c r="M69" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N69" s="13" t="s">
         <v>461</v>
@@ -9373,8 +9370,8 @@
       <c r="L70" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="M70" s="18">
-        <v>1</v>
+      <c r="M70" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N70" s="15" t="s">
         <v>461</v>
@@ -9411,8 +9408,8 @@
       <c r="L71" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="M71" s="17">
-        <v>1</v>
+      <c r="M71" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N71" s="13" t="s">
         <v>461</v>
@@ -9449,8 +9446,8 @@
       <c r="L72" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="M72" s="18">
-        <v>1</v>
+      <c r="M72" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N72" s="15" t="s">
         <v>461</v>
@@ -9487,8 +9484,8 @@
       <c r="L73" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="M73" s="17">
-        <v>1</v>
+      <c r="M73" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N73" s="13" t="s">
         <v>461</v>
@@ -9525,8 +9522,8 @@
       <c r="L74" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="M74" s="18">
-        <v>1</v>
+      <c r="M74" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N74" s="15" t="s">
         <v>461</v>
@@ -9563,8 +9560,8 @@
       <c r="L75" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="M75" s="17">
-        <v>1</v>
+      <c r="M75" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N75" s="13" t="s">
         <v>461</v>
@@ -9601,8 +9598,8 @@
       <c r="L76" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="M76" s="18">
-        <v>1</v>
+      <c r="M76" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N76" s="15" t="s">
         <v>461</v>
@@ -9639,8 +9636,8 @@
       <c r="L77" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="M77" s="17">
-        <v>1</v>
+      <c r="M77" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N77" s="13" t="s">
         <v>461</v>
@@ -9677,8 +9674,8 @@
       <c r="L78" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="M78" s="18">
-        <v>1</v>
+      <c r="M78" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N78" s="15" t="s">
         <v>461</v>
@@ -9715,8 +9712,8 @@
       <c r="L79" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="M79" s="17">
-        <v>1</v>
+      <c r="M79" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N79" s="13" t="s">
         <v>461</v>
@@ -9753,8 +9750,8 @@
       <c r="L80" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="M80" s="18">
-        <v>1</v>
+      <c r="M80" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N80" s="15" t="s">
         <v>461</v>
@@ -9791,8 +9788,8 @@
       <c r="L81" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="M81" s="17">
-        <v>1</v>
+      <c r="M81" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N81" s="13" t="s">
         <v>461</v>
@@ -9829,8 +9826,8 @@
       <c r="L82" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="M82" s="18">
-        <v>1</v>
+      <c r="M82" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N82" s="15" t="s">
         <v>461</v>
@@ -9867,8 +9864,8 @@
       <c r="L83" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="M83" s="17">
-        <v>1</v>
+      <c r="M83" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N83" s="13" t="s">
         <v>461</v>
@@ -9905,8 +9902,8 @@
       <c r="L84" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="M84" s="18">
-        <v>1</v>
+      <c r="M84" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N84" s="15" t="s">
         <v>461</v>
@@ -9943,8 +9940,8 @@
       <c r="L85" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="M85" s="17">
-        <v>1</v>
+      <c r="M85" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N85" s="13" t="s">
         <v>461</v>
@@ -9981,8 +9978,8 @@
       <c r="L86" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="M86" s="18">
-        <v>0.99492229852554559</v>
+      <c r="M86" s="16">
+        <v>2.181269939123E-4</v>
       </c>
       <c r="N86" s="15" t="s">
         <v>461</v>
@@ -10019,8 +10016,8 @@
       <c r="L87" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="M87" s="17">
-        <v>4.0997137740250801E-2</v>
+      <c r="M87" s="14">
+        <v>7.6854436248071047E-6</v>
       </c>
       <c r="N87" s="13" t="s">
         <v>461</v>
@@ -10057,8 +10054,8 @@
       <c r="L88" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="M88" s="18">
-        <v>2.9768579070969799E-2</v>
+      <c r="M88" s="16">
+        <v>5.6402304461845349E-6</v>
       </c>
       <c r="N88" s="15" t="s">
         <v>461</v>
@@ -10095,8 +10092,8 @@
       <c r="L89" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="M89" s="17">
-        <v>3.4051859854321999E-2</v>
+      <c r="M89" s="14">
+        <v>6.4668772901883491E-6</v>
       </c>
       <c r="N89" s="13" t="s">
         <v>461</v>
@@ -10133,8 +10130,8 @@
       <c r="L90" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="M90" s="18">
-        <v>3.1969723184207502E-2</v>
+      <c r="M90" s="16">
+        <v>6.0011018111364586E-6</v>
       </c>
       <c r="N90" s="15" t="s">
         <v>461</v>
@@ -10171,8 +10168,8 @@
       <c r="L91" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="M91" s="17">
-        <v>1.91161903773245E-2</v>
+      <c r="M91" s="14">
+        <v>3.1718993412286982E-6</v>
       </c>
       <c r="N91" s="13" t="s">
         <v>461</v>
@@ -10209,8 +10206,8 @@
       <c r="L92" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="M92" s="18">
-        <v>3.7911389543551E-3</v>
+      <c r="M92" s="16">
+        <v>0</v>
       </c>
       <c r="N92" s="15" t="s">
         <v>461</v>
@@ -10247,7 +10244,7 @@
       <c r="L93" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M93" s="14">
         <v>0</v>
       </c>
       <c r="N93" s="13" t="s">
@@ -10285,7 +10282,7 @@
       <c r="L94" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="M94" s="18">
+      <c r="M94" s="16">
         <v>0</v>
       </c>
       <c r="N94" s="15" t="s">
@@ -10323,7 +10320,7 @@
       <c r="L95" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="M95" s="17">
+      <c r="M95" s="14">
         <v>0</v>
       </c>
       <c r="N95" s="13" t="s">
@@ -10361,7 +10358,7 @@
       <c r="L96" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="M96" s="18">
+      <c r="M96" s="16">
         <v>0</v>
       </c>
       <c r="N96" s="15" t="s">
@@ -10399,7 +10396,7 @@
       <c r="L97" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="M97" s="17">
+      <c r="M97" s="14">
         <v>0</v>
       </c>
       <c r="N97" s="13" t="s">
@@ -10437,7 +10434,7 @@
       <c r="L98" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="M98" s="18">
+      <c r="M98" s="16">
         <v>0</v>
       </c>
       <c r="N98" s="15" t="s">
@@ -10475,7 +10472,7 @@
       <c r="L99" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="M99" s="17">
+      <c r="M99" s="14">
         <v>0</v>
       </c>
       <c r="N99" s="13" t="s">
@@ -10513,7 +10510,7 @@
       <c r="L100" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="M100" s="18">
+      <c r="M100" s="16">
         <v>0</v>
       </c>
       <c r="N100" s="15" t="s">
@@ -10551,7 +10548,7 @@
       <c r="L101" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="M101" s="17">
+      <c r="M101" s="14">
         <v>0</v>
       </c>
       <c r="N101" s="13" t="s">
@@ -10589,7 +10586,7 @@
       <c r="L102" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="M102" s="18">
+      <c r="M102" s="16">
         <v>0</v>
       </c>
       <c r="N102" s="15" t="s">
@@ -10627,7 +10624,7 @@
       <c r="L103" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="M103" s="17">
+      <c r="M103" s="14">
         <v>0</v>
       </c>
       <c r="N103" s="13" t="s">
@@ -10665,7 +10662,7 @@
       <c r="L104" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="M104" s="18">
+      <c r="M104" s="16">
         <v>0</v>
       </c>
       <c r="N104" s="15" t="s">
@@ -10703,7 +10700,7 @@
       <c r="L105" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="M105" s="17">
+      <c r="M105" s="14">
         <v>0</v>
       </c>
       <c r="N105" s="13" t="s">
@@ -10741,8 +10738,8 @@
       <c r="L106" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="M106" s="18">
-        <v>4.0488611228830153E-5</v>
+      <c r="M106" s="16">
+        <v>5.9830704470064803E-9</v>
       </c>
       <c r="N106" s="15" t="s">
         <v>461</v>
@@ -10779,8 +10776,8 @@
       <c r="L107" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="M107" s="17">
-        <v>5.197297344862057E-5</v>
+      <c r="M107" s="14">
+        <v>8.2842672094377163E-9</v>
       </c>
       <c r="N107" s="13" t="s">
         <v>461</v>
@@ -10817,8 +10814,8 @@
       <c r="L108" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="M108" s="18">
-        <v>3.2165149926521686E-5</v>
+      <c r="M108" s="16">
+        <v>0</v>
       </c>
       <c r="N108" s="15" t="s">
         <v>461</v>
@@ -10855,8 +10852,8 @@
       <c r="L109" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="M109" s="17">
-        <v>5.6449096596689023E-5</v>
+      <c r="M109" s="14">
+        <v>9.180972147371511E-9</v>
       </c>
       <c r="N109" s="13" t="s">
         <v>461</v>
@@ -10893,7 +10890,7 @@
       <c r="L110" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="M110" s="18">
+      <c r="M110" s="16">
         <v>0</v>
       </c>
       <c r="N110" s="15" t="s">
@@ -10931,8 +10928,8 @@
       <c r="L111" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="M111" s="17">
-        <v>0.17486534147526861</v>
+      <c r="M111" s="14">
+        <v>3.4257146967205984E-5</v>
       </c>
       <c r="N111" s="13" t="s">
         <v>461</v>
@@ -10969,8 +10966,8 @@
       <c r="L112" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="M112" s="18">
-        <v>9.7696787503192203E-2</v>
+      <c r="M112" s="16">
+        <v>1.8946301655311889E-5</v>
       </c>
       <c r="N112" s="15" t="s">
         <v>461</v>
@@ -11007,8 +11004,8 @@
       <c r="L113" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="M113" s="17">
-        <v>3.4337748743991203E-2</v>
+      <c r="M113" s="14">
+        <v>6.517120181777578E-6</v>
       </c>
       <c r="N113" s="13" t="s">
         <v>461</v>
@@ -11045,8 +11042,8 @@
       <c r="L114" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="M114" s="18">
-        <v>1.1808228693702899E-2</v>
+      <c r="M114" s="16">
+        <v>2.2734668397922028E-6</v>
       </c>
       <c r="N114" s="15" t="s">
         <v>461</v>
@@ -11083,8 +11080,8 @@
       <c r="L115" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="M115" s="17">
-        <v>2.8280208695302601E-2</v>
+      <c r="M115" s="14">
+        <v>5.398674215690003E-6</v>
       </c>
       <c r="N115" s="13" t="s">
         <v>461</v>
@@ -11121,8 +11118,8 @@
       <c r="L116" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="M116" s="18">
-        <v>7.1297562902782996E-2</v>
+      <c r="M116" s="16">
+        <v>1.3899093137292051E-5</v>
       </c>
       <c r="N116" s="15" t="s">
         <v>461</v>
@@ -11159,8 +11156,8 @@
       <c r="L117" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="M117" s="17">
-        <v>0.1166970601964188</v>
+      <c r="M117" s="14">
+        <v>2.2796004354123626E-5</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>461</v>
@@ -11197,8 +11194,8 @@
       <c r="L118" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="M118" s="18">
-        <v>0.17193461858431069</v>
+      <c r="M118" s="16">
+        <v>3.3634857850774313E-5</v>
       </c>
       <c r="N118" s="15" t="s">
         <v>461</v>
@@ -11235,8 +11232,8 @@
       <c r="L119" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="M119" s="17">
-        <v>0.20550600352084339</v>
+      <c r="M119" s="14">
+        <v>4.0176667492070361E-5</v>
       </c>
       <c r="N119" s="13" t="s">
         <v>461</v>
@@ -11273,8 +11270,8 @@
       <c r="L120" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="M120" s="18">
-        <v>0.18057928477704219</v>
+      <c r="M120" s="16">
+        <v>3.5630584473136843E-5</v>
       </c>
       <c r="N120" s="15" t="s">
         <v>461</v>
@@ -11311,8 +11308,8 @@
       <c r="L121" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="M121" s="17">
-        <v>0.14707800232829679</v>
+      <c r="M121" s="14">
+        <v>2.8843950307865177E-5</v>
       </c>
       <c r="N121" s="13" t="s">
         <v>461</v>
@@ -11349,8 +11346,8 @@
       <c r="L122" s="15" t="s">
         <v>573</v>
       </c>
-      <c r="M122" s="18">
-        <v>0.1281829585859722</v>
+      <c r="M122" s="16">
+        <v>2.5227417601081218E-5</v>
       </c>
       <c r="N122" s="15" t="s">
         <v>461</v>
@@ -11387,8 +11384,8 @@
       <c r="L123" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="M123" s="17">
-        <v>0.11743993012744169</v>
+      <c r="M123" s="14">
+        <v>2.325844102707556E-5</v>
       </c>
       <c r="N123" s="13" t="s">
         <v>461</v>
@@ -11425,8 +11422,8 @@
       <c r="L124" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="M124" s="18">
-        <v>0.116234903787931</v>
+      <c r="M124" s="16">
+        <v>2.2900022770765075E-5</v>
       </c>
       <c r="N124" s="15" t="s">
         <v>461</v>
@@ -11463,8 +11460,8 @@
       <c r="L125" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="M125" s="17">
-        <v>0.12448260762969481</v>
+      <c r="M125" s="14">
+        <v>2.4173862030389125E-5</v>
       </c>
       <c r="N125" s="13" t="s">
         <v>461</v>
@@ -11501,8 +11498,8 @@
       <c r="L126" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="M126" s="18">
-        <v>0.1834285352427692</v>
+      <c r="M126" s="16">
+        <v>3.6039094667303122E-5</v>
       </c>
       <c r="N126" s="15" t="s">
         <v>461</v>
@@ -11539,8 +11536,8 @@
       <c r="L127" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="M127" s="17">
-        <v>0.33396358600513337</v>
+      <c r="M127" s="14">
+        <v>6.5682162437510097E-5</v>
       </c>
       <c r="N127" s="13" t="s">
         <v>461</v>
@@ -11577,8 +11574,8 @@
       <c r="L128" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="M128" s="18">
-        <v>0.56404826102603567</v>
+      <c r="M128" s="16">
+        <v>1.10318786576E-4</v>
       </c>
       <c r="N128" s="15" t="s">
         <v>461</v>
@@ -11615,8 +11612,8 @@
       <c r="L129" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="M129" s="17">
-        <v>0.86107080708801809</v>
+      <c r="M129" s="14">
+        <v>1.701591532397E-4</v>
       </c>
       <c r="N129" s="13" t="s">
         <v>461</v>
@@ -11653,8 +11650,8 @@
       <c r="L130" s="15" t="s">
         <v>581</v>
       </c>
-      <c r="M130" s="18">
-        <v>0.96324877079299343</v>
+      <c r="M130" s="16">
+        <v>2.0423243838599999E-4</v>
       </c>
       <c r="N130" s="15" t="s">
         <v>461</v>
@@ -11691,8 +11688,8 @@
       <c r="L131" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="M131" s="17">
-        <v>0.97731535886249621</v>
+      <c r="M131" s="14">
+        <v>2.0940519779990001E-4</v>
       </c>
       <c r="N131" s="13" t="s">
         <v>461</v>
@@ -11729,8 +11726,8 @@
       <c r="L132" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="M132" s="18">
-        <v>0.96921013338082596</v>
+      <c r="M132" s="16">
+        <v>2.0687847591679999E-4</v>
       </c>
       <c r="N132" s="15" t="s">
         <v>461</v>
@@ -11767,8 +11764,8 @@
       <c r="L133" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="M133" s="17">
-        <v>0.98647649455786079</v>
+      <c r="M133" s="14">
+        <v>2.1155637626579999E-4</v>
       </c>
       <c r="N133" s="13" t="s">
         <v>461</v>
@@ -11805,8 +11802,8 @@
       <c r="L134" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="M134" s="18">
-        <v>0.96541079851119216</v>
+      <c r="M134" s="16">
+        <v>2.029009652356E-4</v>
       </c>
       <c r="N134" s="15" t="s">
         <v>461</v>
@@ -11843,8 +11840,8 @@
       <c r="L135" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="M135" s="17">
-        <v>0.99996759363953136</v>
+      <c r="M135" s="14">
+        <v>2.2193437877269999E-4</v>
       </c>
       <c r="N135" s="13" t="s">
         <v>461</v>
@@ -11881,8 +11878,8 @@
       <c r="L136" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="M136" s="18">
-        <v>0.99994960926810661</v>
+      <c r="M136" s="16">
+        <v>2.2183025656389999E-4</v>
       </c>
       <c r="N136" s="15" t="s">
         <v>461</v>
@@ -11919,8 +11916,8 @@
       <c r="L137" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="M137" s="17">
-        <v>0.9999033998312894</v>
+      <c r="M137" s="14">
+        <v>2.2173802288239999E-4</v>
       </c>
       <c r="N137" s="13" t="s">
         <v>461</v>
@@ -11957,8 +11954,8 @@
       <c r="L138" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="M138" s="18">
-        <v>0.99987529550328724</v>
+      <c r="M138" s="16">
+        <v>2.217822817153E-4</v>
       </c>
       <c r="N138" s="15" t="s">
         <v>461</v>
@@ -11995,8 +11992,8 @@
       <c r="L139" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="M139" s="17">
-        <v>0.99987087459054202</v>
+      <c r="M139" s="14">
+        <v>2.2175596804079999E-4</v>
       </c>
       <c r="N139" s="13" t="s">
         <v>461</v>
@@ -12033,8 +12030,8 @@
       <c r="L140" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="M140" s="18">
-        <v>0.9996360974951034</v>
+      <c r="M140" s="16">
+        <v>2.216416745568E-4</v>
       </c>
       <c r="N140" s="15" t="s">
         <v>461</v>
@@ -12071,8 +12068,8 @@
       <c r="L141" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="M141" s="17">
-        <v>0.99948429225774105</v>
+      <c r="M141" s="14">
+        <v>2.2159819758849999E-4</v>
       </c>
       <c r="N141" s="13" t="s">
         <v>461</v>
@@ -12109,8 +12106,8 @@
       <c r="L142" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="M142" s="18">
-        <v>0.99887290545993423</v>
+      <c r="M142" s="16">
+        <v>2.2132212300789999E-4</v>
       </c>
       <c r="N142" s="15" t="s">
         <v>461</v>
@@ -12147,8 +12144,8 @@
       <c r="L143" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="M143" s="17">
-        <v>0.99780321944835559</v>
+      <c r="M143" s="14">
+        <v>2.2092646569259999E-4</v>
       </c>
       <c r="N143" s="13" t="s">
         <v>461</v>
@@ -12185,8 +12182,8 @@
       <c r="L144" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="M144" s="18">
-        <v>0.99714874604255355</v>
+      <c r="M144" s="16">
+        <v>2.208052207736E-4</v>
       </c>
       <c r="N144" s="15" t="s">
         <v>461</v>
@@ -12223,8 +12220,8 @@
       <c r="L145" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="M145" s="17">
-        <v>0.99321291510875798</v>
+      <c r="M145" s="14">
+        <v>2.2005902852399999E-4</v>
       </c>
       <c r="N145" s="13" t="s">
         <v>461</v>
@@ -12261,8 +12258,8 @@
       <c r="L146" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="M146" s="18">
-        <v>0.99386599712112356</v>
+      <c r="M146" s="16">
+        <v>2.2017481155049999E-4</v>
       </c>
       <c r="N146" s="15" t="s">
         <v>461</v>
@@ -12299,8 +12296,8 @@
       <c r="L147" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="M147" s="17">
-        <v>0.99591526004180098</v>
+      <c r="M147" s="14">
+        <v>2.2053552901389999E-4</v>
       </c>
       <c r="N147" s="13" t="s">
         <v>461</v>
@@ -12337,8 +12334,8 @@
       <c r="L148" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="M148" s="18">
-        <v>0.99952844078777259</v>
+      <c r="M148" s="16">
+        <v>2.2158849432949999E-4</v>
       </c>
       <c r="N148" s="15" t="s">
         <v>461</v>
@@ -12375,8 +12372,8 @@
       <c r="L149" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="M149" s="17">
-        <v>0.99921727355350565</v>
+      <c r="M149" s="14">
+        <v>2.2149724359620001E-4</v>
       </c>
       <c r="N149" s="13" t="s">
         <v>461</v>
@@ -12413,8 +12410,8 @@
       <c r="L150" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="M150" s="18">
-        <v>0.99827270070368301</v>
+      <c r="M150" s="16">
+        <v>2.2103402364940001E-4</v>
       </c>
       <c r="N150" s="15" t="s">
         <v>461</v>
@@ -12451,8 +12448,8 @@
       <c r="L151" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="M151" s="17">
-        <v>0.9999067850990252</v>
+      <c r="M151" s="14">
+        <v>2.2181304165239999E-4</v>
       </c>
       <c r="N151" s="13" t="s">
         <v>461</v>
@@ -12489,8 +12486,8 @@
       <c r="L152" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="M152" s="18">
-        <v>1</v>
+      <c r="M152" s="16">
+        <v>2.219914451967E-4</v>
       </c>
       <c r="N152" s="15" t="s">
         <v>461</v>
@@ -12527,8 +12524,8 @@
       <c r="L153" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="M153" s="17">
-        <v>1</v>
+      <c r="M153" s="14">
+        <v>2.2196726335709999E-4</v>
       </c>
       <c r="N153" s="13" t="s">
         <v>461</v>
@@ -12565,8 +12562,8 @@
       <c r="L154" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="M154" s="18">
-        <v>0.99995135017569159</v>
+      <c r="M154" s="16">
+        <v>2.218869355912E-4</v>
       </c>
       <c r="N154" s="15" t="s">
         <v>461</v>
@@ -12603,8 +12600,8 @@
       <c r="L155" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="M155" s="17">
-        <v>0.99997376300833118</v>
+      <c r="M155" s="14">
+        <v>2.2191200402580001E-4</v>
       </c>
       <c r="N155" s="13" t="s">
         <v>461</v>
@@ -12641,8 +12638,8 @@
       <c r="L156" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="M156" s="18">
-        <v>1</v>
+      <c r="M156" s="16">
+        <v>2.2195039765250001E-4</v>
       </c>
       <c r="N156" s="15" t="s">
         <v>461</v>
@@ -12679,8 +12676,8 @@
       <c r="L157" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="M157" s="17">
-        <v>1</v>
+      <c r="M157" s="14">
+        <v>2.2198890125230001E-4</v>
       </c>
       <c r="N157" s="13" t="s">
         <v>461</v>
@@ -12717,8 +12714,8 @@
       <c r="L158" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="M158" s="18">
-        <v>1</v>
+      <c r="M158" s="16">
+        <v>2.2196606730940001E-4</v>
       </c>
       <c r="N158" s="15" t="s">
         <v>461</v>
@@ -12755,8 +12752,8 @@
       <c r="L159" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="M159" s="17">
-        <v>0.45110835286350798</v>
+      <c r="M159" s="14">
+        <v>8.8371953029196262E-5</v>
       </c>
       <c r="N159" s="13" t="s">
         <v>461</v>
@@ -12793,8 +12790,8 @@
       <c r="L160" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="M160" s="18">
-        <v>0.38856779416054338</v>
+      <c r="M160" s="16">
+        <v>7.624696241223045E-5</v>
       </c>
       <c r="N160" s="15" t="s">
         <v>461</v>
@@ -12831,8 +12828,8 @@
       <c r="L161" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="M161" s="17">
-        <v>0.45002327271606729</v>
+      <c r="M161" s="14">
+        <v>8.8634855456720278E-5</v>
       </c>
       <c r="N161" s="13" t="s">
         <v>461</v>
@@ -12869,8 +12866,8 @@
       <c r="L162" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="M162" s="18">
-        <v>0.59679336712486308</v>
+      <c r="M162" s="16">
+        <v>1.172361388816E-4</v>
       </c>
       <c r="N162" s="15" t="s">
         <v>461</v>
@@ -12907,8 +12904,8 @@
       <c r="L163" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="M163" s="17">
-        <v>0.7214705845035031</v>
+      <c r="M163" s="14">
+        <v>1.429157751278E-4</v>
       </c>
       <c r="N163" s="13" t="s">
         <v>461</v>
@@ -12945,8 +12942,8 @@
       <c r="L164" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="M164" s="18">
-        <v>0.80134483059027595</v>
+      <c r="M164" s="16">
+        <v>1.6020733607880001E-4</v>
       </c>
       <c r="N164" s="15" t="s">
         <v>461</v>
@@ -12983,8 +12980,8 @@
       <c r="L165" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="M165" s="17">
-        <v>0.78918709755772876</v>
+      <c r="M165" s="14">
+        <v>1.5654737073130001E-4</v>
       </c>
       <c r="N165" s="13" t="s">
         <v>461</v>
@@ -13021,8 +13018,8 @@
       <c r="L166" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="M166" s="18">
-        <v>0.72320944088022177</v>
+      <c r="M166" s="16">
+        <v>1.4195009272400001E-4</v>
       </c>
       <c r="N166" s="15" t="s">
         <v>461</v>
@@ -13059,8 +13056,8 @@
       <c r="L167" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="M167" s="17">
-        <v>0.6278237624422458</v>
+      <c r="M167" s="14">
+        <v>1.22616034201E-4</v>
       </c>
       <c r="N167" s="13" t="s">
         <v>461</v>
@@ -13097,8 +13094,8 @@
       <c r="L168" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="M168" s="18">
-        <v>0.56281937518214786</v>
+      <c r="M168" s="16">
+        <v>1.1081948364759999E-4</v>
       </c>
       <c r="N168" s="15" t="s">
         <v>461</v>
@@ -13135,8 +13132,8 @@
       <c r="L169" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="M169" s="17">
-        <v>0.39178892037745938</v>
+      <c r="M169" s="14">
+        <v>7.6325113729345371E-5</v>
       </c>
       <c r="N169" s="13" t="s">
         <v>461</v>
@@ -13173,8 +13170,8 @@
       <c r="L170" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="M170" s="18">
-        <v>0.46355795126861887</v>
+      <c r="M170" s="16">
+        <v>9.1118352564251235E-5</v>
       </c>
       <c r="N170" s="15" t="s">
         <v>461</v>
@@ -13211,8 +13208,8 @@
       <c r="L171" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="M171" s="17">
-        <v>0.59461087678074409</v>
+      <c r="M171" s="14">
+        <v>1.16001476522E-4</v>
       </c>
       <c r="N171" s="13" t="s">
         <v>461</v>
@@ -13249,8 +13246,8 @@
       <c r="L172" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="M172" s="18">
-        <v>0.70925296118363257</v>
+      <c r="M172" s="16">
+        <v>1.389677650039E-4</v>
       </c>
       <c r="N172" s="15" t="s">
         <v>461</v>
@@ -13287,8 +13284,8 @@
       <c r="L173" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="M173" s="17">
-        <v>0.75551456455678123</v>
+      <c r="M173" s="14">
+        <v>1.4760809998149999E-4</v>
       </c>
       <c r="N173" s="13" t="s">
         <v>461</v>
@@ -13325,8 +13322,8 @@
       <c r="L174" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="M174" s="18">
-        <v>0.68772072984050692</v>
+      <c r="M174" s="16">
+        <v>1.3522427803429999E-4</v>
       </c>
       <c r="N174" s="15" t="s">
         <v>461</v>
@@ -13363,8 +13360,8 @@
       <c r="L175" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="M175" s="17">
-        <v>0.64198316673694111</v>
+      <c r="M175" s="14">
+        <v>1.2609690087939999E-4</v>
       </c>
       <c r="N175" s="13" t="s">
         <v>461</v>
@@ -13401,8 +13398,8 @@
       <c r="L176" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="M176" s="18">
-        <v>0.55338378111786823</v>
+      <c r="M176" s="16">
+        <v>1.0859684552569999E-4</v>
       </c>
       <c r="N176" s="15" t="s">
         <v>461</v>
@@ -13439,8 +13436,8 @@
       <c r="L177" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="M177" s="17">
-        <v>0.38689614265654221</v>
+      <c r="M177" s="14">
+        <v>7.5995380658405262E-5</v>
       </c>
       <c r="N177" s="13" t="s">
         <v>461</v>
@@ -13477,8 +13474,8 @@
       <c r="L178" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="M178" s="18">
-        <v>0.23184842979270601</v>
+      <c r="M178" s="16">
+        <v>4.5189715237554239E-5</v>
       </c>
       <c r="N178" s="15" t="s">
         <v>461</v>
@@ -13515,8 +13512,8 @@
       <c r="L179" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="M179" s="17">
-        <v>0.14305773428253499</v>
+      <c r="M179" s="14">
+        <v>2.77739989509264E-5</v>
       </c>
       <c r="N179" s="13" t="s">
         <v>461</v>
@@ -13553,8 +13550,8 @@
       <c r="L180" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="M180" s="18">
-        <v>0.104657185767148</v>
+      <c r="M180" s="16">
+        <v>2.0183152423913765E-5</v>
       </c>
       <c r="N180" s="15" t="s">
         <v>461</v>
@@ -13591,8 +13588,8 @@
       <c r="L181" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="M181" s="17">
-        <v>5.8955177205326302E-2</v>
+      <c r="M181" s="14">
+        <v>1.1276769056504762E-5</v>
       </c>
       <c r="N181" s="13" t="s">
         <v>461</v>
@@ -13629,8 +13626,8 @@
       <c r="L182" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="M182" s="18">
-        <v>4.4290357053023997E-2</v>
+      <c r="M182" s="16">
+        <v>8.5002299302634038E-6</v>
       </c>
       <c r="N182" s="15" t="s">
         <v>461</v>
@@ -13667,8 +13664,8 @@
       <c r="L183" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="M183" s="17">
-        <v>9.2353791786366296E-2</v>
+      <c r="M183" s="14">
+        <v>1.8105976598290176E-5</v>
       </c>
       <c r="N183" s="13" t="s">
         <v>461</v>
@@ -13705,8 +13702,8 @@
       <c r="L184" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="M184" s="18">
-        <v>0.1189490671049088</v>
+      <c r="M184" s="16">
+        <v>2.321183234545648E-5</v>
       </c>
       <c r="N184" s="15" t="s">
         <v>461</v>
@@ -13743,8 +13740,8 @@
       <c r="L185" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="M185" s="17">
-        <v>0.1563122342939334</v>
+      <c r="M185" s="14">
+        <v>3.0667901990052686E-5</v>
       </c>
       <c r="N185" s="13" t="s">
         <v>461</v>
@@ -13781,8 +13778,8 @@
       <c r="L186" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="M186" s="18">
-        <v>0.21259942476916549</v>
+      <c r="M186" s="16">
+        <v>4.1707024222746292E-5</v>
       </c>
       <c r="N186" s="15" t="s">
         <v>461</v>
@@ -13819,8 +13816,8 @@
       <c r="L187" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="M187" s="17">
-        <v>0.27949837986343051</v>
+      <c r="M187" s="14">
+        <v>5.4649269648687871E-5</v>
       </c>
       <c r="N187" s="13" t="s">
         <v>461</v>
@@ -13857,8 +13854,8 @@
       <c r="L188" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="M188" s="18">
-        <v>0.36300779646062947</v>
+      <c r="M188" s="16">
+        <v>7.1831213358876435E-5</v>
       </c>
       <c r="N188" s="15" t="s">
         <v>461</v>
@@ -13895,8 +13892,8 @@
       <c r="L189" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="M189" s="17">
-        <v>0.50414269968285841</v>
+      <c r="M189" s="14">
+        <v>9.9797204115294199E-5</v>
       </c>
       <c r="N189" s="13" t="s">
         <v>461</v>
@@ -13933,8 +13930,8 @@
       <c r="L190" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="M190" s="18">
-        <v>0.63941095807005532</v>
+      <c r="M190" s="16">
+        <v>1.275103099047E-4</v>
       </c>
       <c r="N190" s="15" t="s">
         <v>461</v>
@@ -13971,8 +13968,8 @@
       <c r="L191" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="M191" s="17">
-        <v>0.76572296340862034</v>
+      <c r="M191" s="14">
+        <v>1.529529874804E-4</v>
       </c>
       <c r="N191" s="13" t="s">
         <v>461</v>
@@ -14009,8 +14006,8 @@
       <c r="L192" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="M192" s="18">
-        <v>0.8310350600666897</v>
+      <c r="M192" s="16">
+        <v>1.6627260693199999E-4</v>
       </c>
       <c r="N192" s="15" t="s">
         <v>461</v>
@@ -14047,8 +14044,8 @@
       <c r="L193" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="M193" s="17">
-        <v>0.69860027488763221</v>
+      <c r="M193" s="14">
+        <v>1.3726001160479999E-4</v>
       </c>
       <c r="N193" s="13" t="s">
         <v>461</v>
@@ -14085,8 +14082,8 @@
       <c r="L194" s="15" t="s">
         <v>645</v>
       </c>
-      <c r="M194" s="18">
-        <v>0.69342845854651758</v>
+      <c r="M194" s="16">
+        <v>1.3612021504219999E-4</v>
       </c>
       <c r="N194" s="15" t="s">
         <v>461</v>
@@ -14123,8 +14120,8 @@
       <c r="L195" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="M195" s="17">
-        <v>0.77780568789649307</v>
+      <c r="M195" s="14">
+        <v>1.5379490037800001E-4</v>
       </c>
       <c r="N195" s="13" t="s">
         <v>461</v>
@@ -14161,8 +14158,8 @@
       <c r="L196" s="15" t="s">
         <v>647</v>
       </c>
-      <c r="M196" s="18">
-        <v>0.84774531081839244</v>
+      <c r="M196" s="16">
+        <v>1.6748164835549999E-4</v>
       </c>
       <c r="N196" s="15" t="s">
         <v>461</v>
@@ -14199,8 +14196,8 @@
       <c r="L197" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="M197" s="17">
-        <v>0.74660026402274215</v>
+      <c r="M197" s="14">
+        <v>1.4722140084269999E-4</v>
       </c>
       <c r="N197" s="13" t="s">
         <v>461</v>
@@ -14237,8 +14234,8 @@
       <c r="L198" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="M198" s="18">
-        <v>0.72554022770814308</v>
+      <c r="M198" s="16">
+        <v>1.428187737593E-4</v>
       </c>
       <c r="N198" s="15" t="s">
         <v>461</v>
@@ -14275,8 +14272,8 @@
       <c r="L199" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="M199" s="17">
-        <v>0.74328557035686826</v>
+      <c r="M199" s="14">
+        <v>1.472423288191E-4</v>
       </c>
       <c r="N199" s="13" t="s">
         <v>461</v>
@@ -14313,8 +14310,8 @@
       <c r="L200" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="M200" s="18">
-        <v>0.80404299023961767</v>
+      <c r="M200" s="16">
+        <v>1.620941994024E-4</v>
       </c>
       <c r="N200" s="15" t="s">
         <v>461</v>
@@ -14351,8 +14348,8 @@
       <c r="L201" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="M201" s="17">
-        <v>0.84413794255249086</v>
+      <c r="M201" s="14">
+        <v>1.6970796315E-4</v>
       </c>
       <c r="N201" s="13" t="s">
         <v>461</v>
@@ -14389,8 +14386,8 @@
       <c r="L202" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="M202" s="18">
-        <v>0.87337384869410661</v>
+      <c r="M202" s="16">
+        <v>1.7549749742570001E-4</v>
       </c>
       <c r="N202" s="15" t="s">
         <v>461</v>
@@ -14427,8 +14424,8 @@
       <c r="L203" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="M203" s="17">
-        <v>0.86628508099944124</v>
+      <c r="M203" s="14">
+        <v>1.7328775595059999E-4</v>
       </c>
       <c r="N203" s="13" t="s">
         <v>461</v>
@@ -14465,8 +14462,8 @@
       <c r="L204" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="M204" s="18">
-        <v>0.81017306446088599</v>
+      <c r="M204" s="16">
+        <v>1.5977551651199999E-4</v>
       </c>
       <c r="N204" s="15" t="s">
         <v>461</v>
@@ -14503,8 +14500,8 @@
       <c r="L205" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="M205" s="17">
-        <v>0.80347813638930321</v>
+      <c r="M205" s="14">
+        <v>1.5744613852500001E-4</v>
       </c>
       <c r="N205" s="13" t="s">
         <v>461</v>
@@ -14541,8 +14538,8 @@
       <c r="L206" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="M206" s="18">
-        <v>0.66318384699010735</v>
+      <c r="M206" s="16">
+        <v>1.302919801652E-4</v>
       </c>
       <c r="N206" s="15" t="s">
         <v>461</v>
@@ -14579,8 +14576,8 @@
       <c r="L207" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="M207" s="17">
-        <v>0.18899219769676659</v>
+      <c r="M207" s="14">
+        <v>3.6700556639777136E-5</v>
       </c>
       <c r="N207" s="13" t="s">
         <v>461</v>
@@ -14617,8 +14614,8 @@
       <c r="L208" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="M208" s="18">
-        <v>0.15636581816420519</v>
+      <c r="M208" s="16">
+        <v>3.038537882191912E-5</v>
       </c>
       <c r="N208" s="15" t="s">
         <v>461</v>
@@ -14655,8 +14652,8 @@
       <c r="L209" s="13" t="s">
         <v>660</v>
       </c>
-      <c r="M209" s="17">
-        <v>0.14104078503875159</v>
+      <c r="M209" s="14">
+        <v>2.7534175470475611E-5</v>
       </c>
       <c r="N209" s="13" t="s">
         <v>461</v>
@@ -14693,8 +14690,8 @@
       <c r="L210" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="M210" s="18">
-        <v>0.15099484754300721</v>
+      <c r="M210" s="16">
+        <v>2.9392668335149436E-5</v>
       </c>
       <c r="N210" s="15" t="s">
         <v>461</v>
@@ -14731,8 +14728,8 @@
       <c r="L211" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="M211" s="17">
-        <v>0.15467390230102199</v>
+      <c r="M211" s="14">
+        <v>3.0305095174372624E-5</v>
       </c>
       <c r="N211" s="13" t="s">
         <v>461</v>
@@ -14769,8 +14766,8 @@
       <c r="L212" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="M212" s="18">
-        <v>0.11788615508999779</v>
+      <c r="M212" s="16">
+        <v>2.2930390153157891E-5</v>
       </c>
       <c r="N212" s="15" t="s">
         <v>461</v>
@@ -14807,8 +14804,8 @@
       <c r="L213" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="M213" s="17">
-        <v>8.2848486473357102E-2</v>
+      <c r="M213" s="14">
+        <v>1.6178260779599131E-5</v>
       </c>
       <c r="N213" s="13" t="s">
         <v>461</v>
@@ -14845,8 +14842,8 @@
       <c r="L214" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="M214" s="18">
-        <v>6.7451012895349799E-2</v>
+      <c r="M214" s="16">
+        <v>1.3309461116384489E-5</v>
       </c>
       <c r="N214" s="15" t="s">
         <v>461</v>
@@ -14883,8 +14880,8 @@
       <c r="L215" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="M215" s="17">
-        <v>9.3718758178700207E-2</v>
+      <c r="M215" s="14">
+        <v>1.8410058922833906E-5</v>
       </c>
       <c r="N215" s="13" t="s">
         <v>461</v>
@@ -14921,8 +14918,8 @@
       <c r="L216" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="M216" s="18">
-        <v>8.6460254165570405E-2</v>
+      <c r="M216" s="16">
+        <v>1.6851732426150703E-5</v>
       </c>
       <c r="N216" s="15" t="s">
         <v>461</v>
@@ -14959,8 +14956,8 @@
       <c r="L217" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="M217" s="17">
-        <v>3.5283977280858102E-2</v>
+      <c r="M217" s="14">
+        <v>6.7681989847508926E-6</v>
       </c>
       <c r="N217" s="13" t="s">
         <v>461</v>
@@ -14997,8 +14994,8 @@
       <c r="L218" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="M218" s="18">
-        <v>1.8892372527005999E-2</v>
+      <c r="M218" s="16">
+        <v>3.4453919160087672E-6</v>
       </c>
       <c r="N218" s="15" t="s">
         <v>461</v>
@@ -15035,8 +15032,8 @@
       <c r="L219" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="M219" s="17">
-        <v>7.2047472840937998E-3</v>
+      <c r="M219" s="14">
+        <v>1.3391417689161766E-6</v>
       </c>
       <c r="N219" s="13" t="s">
         <v>461</v>
@@ -15073,8 +15070,8 @@
       <c r="L220" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="M220" s="18">
-        <v>4.5272908232790003E-3</v>
+      <c r="M220" s="16">
+        <v>8.0470683403012199E-7</v>
       </c>
       <c r="N220" s="15" t="s">
         <v>461</v>
@@ -15111,8 +15108,8 @@
       <c r="L221" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="M221" s="17">
-        <v>4.6841084939438999E-3</v>
+      <c r="M221" s="14">
+        <v>8.5349293448100572E-7</v>
       </c>
       <c r="N221" s="13" t="s">
         <v>461</v>
@@ -15149,8 +15146,8 @@
       <c r="L222" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="M222" s="18">
-        <v>3.2197680797852999E-3</v>
+      <c r="M222" s="16">
+        <v>5.6967918785948837E-7</v>
       </c>
       <c r="N222" s="15" t="s">
         <v>461</v>
@@ -15187,8 +15184,8 @@
       <c r="L223" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="M223" s="17">
-        <v>5.1951014140810998E-3</v>
+      <c r="M223" s="14">
+        <v>5.7528039689932173E-7</v>
       </c>
       <c r="N223" s="13" t="s">
         <v>461</v>
@@ -15225,8 +15222,8 @@
       <c r="L224" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="M224" s="18">
-        <v>7.8809359575524006E-3</v>
+      <c r="M224" s="16">
+        <v>1.3878626775596757E-6</v>
       </c>
       <c r="N224" s="15" t="s">
         <v>461</v>
@@ -15263,8 +15260,8 @@
       <c r="L225" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="M225" s="17">
-        <v>9.6826641830750002E-3</v>
+      <c r="M225" s="14">
+        <v>1.7806107323696557E-6</v>
       </c>
       <c r="N225" s="13" t="s">
         <v>461</v>
@@ -15301,8 +15298,8 @@
       <c r="L226" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="M226" s="18">
-        <v>7.1593519731432001E-3</v>
+      <c r="M226" s="16">
+        <v>1.2691206243236671E-6</v>
       </c>
       <c r="N226" s="15" t="s">
         <v>461</v>
@@ -15339,8 +15336,8 @@
       <c r="L227" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="M227" s="17">
-        <v>6.4970438456707002E-3</v>
+      <c r="M227" s="14">
+        <v>1.0846631011950129E-6</v>
       </c>
       <c r="N227" s="13" t="s">
         <v>461</v>
@@ -15377,8 +15374,8 @@
       <c r="L228" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="M228" s="18">
-        <v>1.7479748451886299E-2</v>
+      <c r="M228" s="16">
+        <v>3.1318760788599081E-6</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>461</v>
@@ -15415,8 +15412,8 @@
       <c r="L229" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="M229" s="17">
-        <v>6.9085732172515998E-3</v>
+      <c r="M229" s="14">
+        <v>1.1720109627997159E-6</v>
       </c>
       <c r="N229" s="13" t="s">
         <v>461</v>
@@ -15453,8 +15450,8 @@
       <c r="L230" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="M230" s="18">
-        <v>8.2625948851475992E-3</v>
+      <c r="M230" s="16">
+        <v>1.4589855544640195E-6</v>
       </c>
       <c r="N230" s="15" t="s">
         <v>461</v>
@@ -15491,8 +15488,8 @@
       <c r="L231" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="M231" s="17">
-        <v>9.7224161508531595E-2</v>
+      <c r="M231" s="14">
+        <v>1.8785575548363204E-5</v>
       </c>
       <c r="N231" s="13" t="s">
         <v>461</v>
@@ -15529,8 +15526,8 @@
       <c r="L232" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="M232" s="18">
-        <v>5.5461653792340498E-2</v>
+      <c r="M232" s="16">
+        <v>1.0577076450254304E-5</v>
       </c>
       <c r="N232" s="15" t="s">
         <v>461</v>
@@ -15567,8 +15564,8 @@
       <c r="L233" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="M233" s="17">
-        <v>3.57723705127048E-2</v>
+      <c r="M233" s="14">
+        <v>6.6554569188135403E-6</v>
       </c>
       <c r="N233" s="13" t="s">
         <v>461</v>
@@ -15605,8 +15602,8 @@
       <c r="L234" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="M234" s="18">
-        <v>2.14406991459705E-2</v>
+      <c r="M234" s="16">
+        <v>3.905329298542106E-6</v>
       </c>
       <c r="N234" s="15" t="s">
         <v>461</v>
@@ -15643,8 +15640,8 @@
       <c r="L235" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="M235" s="17">
-        <v>8.2435756898617991E-3</v>
+      <c r="M235" s="14">
+        <v>1.4827226326346008E-6</v>
       </c>
       <c r="N235" s="13" t="s">
         <v>461</v>
@@ -15681,8 +15678,8 @@
       <c r="L236" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="M236" s="18">
-        <v>7.3476115529889996E-3</v>
+      <c r="M236" s="16">
+        <v>1.2961098997638325E-6</v>
       </c>
       <c r="N236" s="15" t="s">
         <v>461</v>
@@ -15719,8 +15716,8 @@
       <c r="L237" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="M237" s="17">
-        <v>4.8641986804419998E-3</v>
+      <c r="M237" s="14">
+        <v>5.8653536812222346E-7</v>
       </c>
       <c r="N237" s="13" t="s">
         <v>461</v>
@@ -15757,8 +15754,8 @@
       <c r="L238" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="M238" s="18">
-        <v>2.1352864947276999E-3</v>
+      <c r="M238" s="16">
+        <v>0</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>461</v>
@@ -15795,8 +15792,8 @@
       <c r="L239" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="M239" s="17">
-        <v>3.2259526230063E-3</v>
+      <c r="M239" s="14">
+        <v>4.7895685380478523E-7</v>
       </c>
       <c r="N239" s="13" t="s">
         <v>461</v>
@@ -15833,8 +15830,8 @@
       <c r="L240" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="M240" s="18">
-        <v>9.6640152283450995E-3</v>
+      <c r="M240" s="16">
+        <v>1.5489416380638129E-6</v>
       </c>
       <c r="N240" s="15" t="s">
         <v>461</v>
@@ -15871,8 +15868,8 @@
       <c r="L241" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="M241" s="17">
-        <v>2.9363304323017998E-3</v>
+      <c r="M241" s="14">
+        <v>1.6839564591391281E-8</v>
       </c>
       <c r="N241" s="13" t="s">
         <v>461</v>
@@ -15909,8 +15906,8 @@
       <c r="L242" s="15" t="s">
         <v>693</v>
       </c>
-      <c r="M242" s="18">
-        <v>4.5942761237627002E-3</v>
+      <c r="M242" s="16">
+        <v>7.1653360166603636E-7</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>461</v>
@@ -15947,8 +15944,8 @@
       <c r="L243" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="M243" s="17">
-        <v>1.1216759374840599E-2</v>
+      <c r="M243" s="14">
+        <v>1.8456541451803955E-6</v>
       </c>
       <c r="N243" s="13" t="s">
         <v>461</v>
@@ -15985,8 +15982,8 @@
       <c r="L244" s="15" t="s">
         <v>695</v>
       </c>
-      <c r="M244" s="18">
-        <v>1.5327738876702199E-2</v>
+      <c r="M244" s="16">
+        <v>2.6915687543118188E-6</v>
       </c>
       <c r="N244" s="15" t="s">
         <v>461</v>
@@ -16023,8 +16020,8 @@
       <c r="L245" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="M245" s="17">
-        <v>2.05511529572588E-2</v>
+      <c r="M245" s="14">
+        <v>3.7911851924048012E-6</v>
       </c>
       <c r="N245" s="13" t="s">
         <v>461</v>
@@ -16061,8 +16058,8 @@
       <c r="L246" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="M246" s="18">
-        <v>3.3220706894327101E-2</v>
+      <c r="M246" s="16">
+        <v>5.9929338826886866E-6</v>
       </c>
       <c r="N246" s="15" t="s">
         <v>461</v>
@@ -16099,8 +16096,8 @@
       <c r="L247" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="M247" s="17">
-        <v>5.0250158646790999E-2</v>
+      <c r="M247" s="14">
+        <v>9.4556604304401367E-6</v>
       </c>
       <c r="N247" s="13" t="s">
         <v>461</v>
@@ -16137,8 +16134,8 @@
       <c r="L248" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="M248" s="18">
-        <v>7.1117383408693099E-2</v>
+      <c r="M248" s="16">
+        <v>1.322817468793612E-5</v>
       </c>
       <c r="N248" s="15" t="s">
         <v>461</v>
@@ -16175,8 +16172,8 @@
       <c r="L249" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="M249" s="17">
-        <v>8.78659748132503E-2</v>
+      <c r="M249" s="14">
+        <v>1.6650331923137909E-5</v>
       </c>
       <c r="N249" s="13" t="s">
         <v>461</v>
@@ -16213,8 +16210,8 @@
       <c r="L250" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="M250" s="18">
-        <v>8.6956303376480207E-2</v>
+      <c r="M250" s="16">
+        <v>1.6727618451891001E-5</v>
       </c>
       <c r="N250" s="15" t="s">
         <v>461</v>
@@ -16251,8 +16248,8 @@
       <c r="L251" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="M251" s="17">
-        <v>8.2429985303123704E-2</v>
+      <c r="M251" s="14">
+        <v>1.577612766696201E-5</v>
       </c>
       <c r="N251" s="13" t="s">
         <v>461</v>
@@ -16289,8 +16286,8 @@
       <c r="L252" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="M252" s="18">
-        <v>7.51948672282126E-2</v>
+      <c r="M252" s="16">
+        <v>1.42561257840469E-5</v>
       </c>
       <c r="N252" s="15" t="s">
         <v>461</v>
@@ -16327,8 +16324,8 @@
       <c r="L253" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="M253" s="17">
-        <v>7.8403434621586193E-2</v>
+      <c r="M253" s="14">
+        <v>1.5081949101078493E-5</v>
       </c>
       <c r="N253" s="13" t="s">
         <v>461</v>
@@ -16365,8 +16362,8 @@
       <c r="L254" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="M254" s="18">
-        <v>7.5808915848001104E-2</v>
+      <c r="M254" s="16">
+        <v>1.4506450991504256E-5</v>
       </c>
       <c r="N254" s="15" t="s">
         <v>461</v>
@@ -16403,8 +16400,8 @@
       <c r="L255" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="M255" s="17">
-        <v>319.84184805210185</v>
+      <c r="M255" s="14">
+        <v>6.7987884119196748E-2</v>
       </c>
       <c r="N255" s="13" t="s">
         <v>461</v>
@@ -16441,8 +16438,8 @@
       <c r="L256" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="M256" s="18">
-        <v>38.87563977640712</v>
+      <c r="M256" s="16">
+        <v>8.2702680923939353E-3</v>
       </c>
       <c r="N256" s="15" t="s">
         <v>461</v>
@@ -16479,8 +16476,8 @@
       <c r="L257" s="13" t="s">
         <v>708</v>
       </c>
-      <c r="M257" s="17">
-        <v>255.1765286991008</v>
+      <c r="M257" s="14">
+        <v>5.4352393952687303E-2</v>
       </c>
       <c r="N257" s="13" t="s">
         <v>461</v>
@@ -16517,8 +16514,8 @@
       <c r="L258" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="M258" s="18">
-        <v>303.83052131601585</v>
+      <c r="M258" s="16">
+        <v>6.4271327524300662E-2</v>
       </c>
       <c r="N258" s="15" t="s">
         <v>461</v>
@@ -16555,8 +16552,8 @@
       <c r="L259" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="M259" s="17">
-        <v>1.25431920229359E-2</v>
+      <c r="M259" s="14">
+        <v>1.44988213896218E-6</v>
       </c>
       <c r="N259" s="13" t="s">
         <v>461</v>
@@ -16593,8 +16590,8 @@
       <c r="L260" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="M260" s="18">
-        <v>8.7183747853399E-3</v>
+      <c r="M260" s="16">
+        <v>1.523613733566155E-6</v>
       </c>
       <c r="N260" s="15" t="s">
         <v>461</v>
@@ -16631,8 +16628,8 @@
       <c r="L261" s="13" t="s">
         <v>712</v>
       </c>
-      <c r="M261" s="17">
-        <v>7.0492420276354996E-3</v>
+      <c r="M261" s="14">
+        <v>1.1731830480348306E-6</v>
       </c>
       <c r="N261" s="13" t="s">
         <v>461</v>
@@ -16669,8 +16666,8 @@
       <c r="L262" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="M262" s="18">
-        <v>1.8532355328176001E-3</v>
+      <c r="M262" s="16">
+        <v>3.191766207304846E-7</v>
       </c>
       <c r="N262" s="15" t="s">
         <v>461</v>
@@ -16707,8 +16704,8 @@
       <c r="L263" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="M263" s="17">
-        <v>2.3363524325700001E-3</v>
+      <c r="M263" s="14">
+        <v>3.989029107875207E-7</v>
       </c>
       <c r="N263" s="13" t="s">
         <v>461</v>
@@ -16745,8 +16742,8 @@
       <c r="L264" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="M264" s="18">
-        <v>2.0953079977972999E-3</v>
+      <c r="M264" s="16">
+        <v>3.5302667712830082E-7</v>
       </c>
       <c r="N264" s="15" t="s">
         <v>461</v>
@@ -16783,8 +16780,8 @@
       <c r="L265" s="13" t="s">
         <v>716</v>
       </c>
-      <c r="M265" s="17">
-        <v>3.6747244262994002E-3</v>
+      <c r="M265" s="14">
+        <v>6.3462369114051736E-7</v>
       </c>
       <c r="N265" s="13" t="s">
         <v>461</v>
@@ -16821,8 +16818,8 @@
       <c r="L266" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="M266" s="18">
-        <v>1.5777707703478899E-2</v>
+      <c r="M266" s="16">
+        <v>2.3033186134865828E-6</v>
       </c>
       <c r="N266" s="15" t="s">
         <v>461</v>
@@ -16859,8 +16856,8 @@
       <c r="L267" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="M267" s="17">
-        <v>3.9917886797465003E-2</v>
+      <c r="M267" s="14">
+        <v>7.530230801523832E-6</v>
       </c>
       <c r="N267" s="13" t="s">
         <v>461</v>
@@ -16897,8 +16894,8 @@
       <c r="L268" s="15" t="s">
         <v>719</v>
       </c>
-      <c r="M268" s="18">
-        <v>6.4939079244764303E-2</v>
+      <c r="M268" s="16">
+        <v>1.2131927642560168E-5</v>
       </c>
       <c r="N268" s="15" t="s">
         <v>461</v>
@@ -16935,8 +16932,8 @@
       <c r="L269" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="M269" s="17">
-        <v>9.2737565534838501E-2</v>
+      <c r="M269" s="14">
+        <v>1.8060911062267329E-5</v>
       </c>
       <c r="N269" s="13" t="s">
         <v>461</v>
@@ -16973,8 +16970,8 @@
       <c r="L270" s="15" t="s">
         <v>721</v>
       </c>
-      <c r="M270" s="18">
-        <v>0.13588162343746929</v>
+      <c r="M270" s="16">
+        <v>2.6212494399421199E-5</v>
       </c>
       <c r="N270" s="15" t="s">
         <v>461</v>
@@ -17011,8 +17008,8 @@
       <c r="L271" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="M271" s="17">
-        <v>0.14306137192418081</v>
+      <c r="M271" s="14">
+        <v>2.7641768200064929E-5</v>
       </c>
       <c r="N271" s="13" t="s">
         <v>461</v>
@@ -17049,8 +17046,8 @@
       <c r="L272" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="M272" s="18">
-        <v>0.1206271759458008</v>
+      <c r="M272" s="16">
+        <v>2.3531260917765037E-5</v>
       </c>
       <c r="N272" s="15" t="s">
         <v>461</v>
@@ -17087,8 +17084,8 @@
       <c r="L273" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="M273" s="17">
-        <v>0.11865671140744689</v>
+      <c r="M273" s="14">
+        <v>2.2994519242244803E-5</v>
       </c>
       <c r="N273" s="13" t="s">
         <v>461</v>
@@ -17125,8 +17122,8 @@
       <c r="L274" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="M274" s="18">
-        <v>0.1285749531592445</v>
+      <c r="M274" s="16">
+        <v>2.5073197583359571E-5</v>
       </c>
       <c r="N274" s="15" t="s">
         <v>461</v>
@@ -17163,8 +17160,8 @@
       <c r="L275" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="M275" s="17">
-        <v>0.14510719244728679</v>
+      <c r="M275" s="14">
+        <v>2.8524161201808805E-5</v>
       </c>
       <c r="N275" s="13" t="s">
         <v>461</v>
@@ -17201,8 +17198,8 @@
       <c r="L276" s="15" t="s">
         <v>727</v>
       </c>
-      <c r="M276" s="18">
-        <v>0.1724287775530608</v>
+      <c r="M276" s="16">
+        <v>3.3799749919429065E-5</v>
       </c>
       <c r="N276" s="15" t="s">
         <v>461</v>
@@ -17239,8 +17236,8 @@
       <c r="L277" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="M277" s="17">
-        <v>0.21888254829158049</v>
+      <c r="M277" s="14">
+        <v>4.2803732493409308E-5</v>
       </c>
       <c r="N277" s="13" t="s">
         <v>461</v>
@@ -17277,8 +17274,8 @@
       <c r="L278" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="M278" s="18">
-        <v>0.26248604442958839</v>
+      <c r="M278" s="16">
+        <v>5.156007175174158E-5</v>
       </c>
       <c r="N278" s="15" t="s">
         <v>461</v>
@@ -17315,8 +17312,8 @@
       <c r="L279" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="M279" s="17">
-        <v>0.2905811338148932</v>
+      <c r="M279" s="14">
+        <v>5.686712170057242E-5</v>
       </c>
       <c r="N279" s="13" t="s">
         <v>461</v>
@@ -17353,8 +17350,8 @@
       <c r="L280" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="M280" s="18">
-        <v>0.3350898562639969</v>
+      <c r="M280" s="16">
+        <v>6.557836810859981E-5</v>
       </c>
       <c r="N280" s="15" t="s">
         <v>461</v>
@@ -17391,8 +17388,8 @@
       <c r="L281" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="M281" s="17">
-        <v>0.43821718529060438</v>
+      <c r="M281" s="14">
+        <v>8.6091697568738015E-5</v>
       </c>
       <c r="N281" s="13" t="s">
         <v>461</v>
@@ -17429,8 +17426,8 @@
       <c r="L282" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="M282" s="18">
-        <v>0.4179459849254244</v>
+      <c r="M282" s="16">
+        <v>8.204607632899634E-5</v>
       </c>
       <c r="N282" s="15" t="s">
         <v>461</v>
@@ -17467,8 +17464,8 @@
       <c r="L283" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="M283" s="17">
-        <v>0.36443715686404299</v>
+      <c r="M283" s="14">
+        <v>7.16731032969593E-5</v>
       </c>
       <c r="N283" s="13" t="s">
         <v>461</v>
@@ -17505,8 +17502,8 @@
       <c r="L284" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="M284" s="18">
-        <v>0.33501271027509022</v>
+      <c r="M284" s="16">
+        <v>6.5874168333613175E-5</v>
       </c>
       <c r="N284" s="15" t="s">
         <v>461</v>
@@ -17543,8 +17540,8 @@
       <c r="L285" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="M285" s="17">
-        <v>0.36941832185198081</v>
+      <c r="M285" s="14">
+        <v>7.2688616074594761E-5</v>
       </c>
       <c r="N285" s="13" t="s">
         <v>461</v>
@@ -17581,8 +17578,8 @@
       <c r="L286" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="M286" s="18">
-        <v>0.37817596677222742</v>
+      <c r="M286" s="16">
+        <v>7.4398606897170189E-5</v>
       </c>
       <c r="N286" s="15" t="s">
         <v>461</v>
@@ -17619,8 +17616,8 @@
       <c r="L287" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="M287" s="17">
-        <v>0.41715408429692269</v>
+      <c r="M287" s="14">
+        <v>8.1677611344249771E-5</v>
       </c>
       <c r="N287" s="13" t="s">
         <v>461</v>
@@ -17657,8 +17654,8 @@
       <c r="L288" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="M288" s="18">
-        <v>0.43427539551992828</v>
+      <c r="M288" s="16">
+        <v>8.5226802358369483E-5</v>
       </c>
       <c r="N288" s="15" t="s">
         <v>461</v>
@@ -17695,8 +17692,8 @@
       <c r="L289" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="M289" s="17">
-        <v>0.43302551680913098</v>
+      <c r="M289" s="14">
+        <v>8.4810105106083013E-5</v>
       </c>
       <c r="N289" s="13" t="s">
         <v>461</v>
@@ -17733,8 +17730,8 @@
       <c r="L290" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="M290" s="18">
-        <v>0.45407781530810681</v>
+      <c r="M290" s="16">
+        <v>8.8838587053924141E-5</v>
       </c>
       <c r="N290" s="15" t="s">
         <v>461</v>
@@ -17771,8 +17768,8 @@
       <c r="L291" s="13" t="s">
         <v>742</v>
       </c>
-      <c r="M291" s="17">
-        <v>0.49908943110582238</v>
+      <c r="M291" s="14">
+        <v>9.7975155341739238E-5</v>
       </c>
       <c r="N291" s="13" t="s">
         <v>461</v>
@@ -17809,8 +17806,8 @@
       <c r="L292" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="M292" s="18">
-        <v>0.50699152439448458</v>
+      <c r="M292" s="16">
+        <v>9.9659307697034887E-5</v>
       </c>
       <c r="N292" s="15" t="s">
         <v>461</v>
@@ -17847,8 +17844,8 @@
       <c r="L293" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="M293" s="17">
-        <v>0.49499389580753311</v>
+      <c r="M293" s="14">
+        <v>9.6999745871973706E-5</v>
       </c>
       <c r="N293" s="13" t="s">
         <v>461</v>
@@ -17885,8 +17882,8 @@
       <c r="L294" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="M294" s="18">
-        <v>0.47267372849246519</v>
+      <c r="M294" s="16">
+        <v>9.278046638312208E-5</v>
       </c>
       <c r="N294" s="15" t="s">
         <v>461</v>
@@ -17923,8 +17920,8 @@
       <c r="L295" s="13" t="s">
         <v>746</v>
       </c>
-      <c r="M295" s="17">
-        <v>0.45427574808218452</v>
+      <c r="M295" s="14">
+        <v>8.9265904113195233E-5</v>
       </c>
       <c r="N295" s="13" t="s">
         <v>461</v>
@@ -17961,8 +17958,8 @@
       <c r="L296" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="M296" s="18">
-        <v>0.3965139556975481</v>
+      <c r="M296" s="16">
+        <v>7.7945085978268396E-5</v>
       </c>
       <c r="N296" s="15" t="s">
         <v>461</v>
@@ -17999,8 +17996,8 @@
       <c r="L297" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="M297" s="17">
-        <v>0.3547047246954147</v>
+      <c r="M297" s="14">
+        <v>6.9278574138793633E-5</v>
       </c>
       <c r="N297" s="13" t="s">
         <v>461</v>
@@ -18037,8 +18034,8 @@
       <c r="L298" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="M298" s="18">
-        <v>0.31157097682985918</v>
+      <c r="M298" s="16">
+        <v>6.1020001593269213E-5</v>
       </c>
       <c r="N298" s="15" t="s">
         <v>461</v>
@@ -18075,8 +18072,8 @@
       <c r="L299" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="M299" s="17">
-        <v>0.30019452603738039</v>
+      <c r="M299" s="14">
+        <v>5.8699798922601972E-5</v>
       </c>
       <c r="N299" s="13" t="s">
         <v>461</v>
@@ -18113,8 +18110,8 @@
       <c r="L300" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="M300" s="18">
-        <v>0.2859810784579872</v>
+      <c r="M300" s="16">
+        <v>5.5712473961539501E-5</v>
       </c>
       <c r="N300" s="15" t="s">
         <v>461</v>
@@ -18151,8 +18148,8 @@
       <c r="L301" s="13" t="s">
         <v>752</v>
       </c>
-      <c r="M301" s="17">
-        <v>0.27344468916467612</v>
+      <c r="M301" s="14">
+        <v>5.3337248971070392E-5</v>
       </c>
       <c r="N301" s="13" t="s">
         <v>461</v>
@@ -18189,8 +18186,8 @@
       <c r="L302" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="M302" s="18">
-        <v>0.2643766437578039</v>
+      <c r="M302" s="16">
+        <v>5.1701565102332203E-5</v>
       </c>
       <c r="N302" s="15" t="s">
         <v>461</v>
@@ -18227,8 +18224,8 @@
       <c r="L303" s="13" t="s">
         <v>754</v>
       </c>
-      <c r="M303" s="17">
-        <v>0.24592097069754371</v>
+      <c r="M303" s="14">
+        <v>4.8002530079296523E-5</v>
       </c>
       <c r="N303" s="13" t="s">
         <v>461</v>
@@ -18265,8 +18262,8 @@
       <c r="L304" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="M304" s="18">
-        <v>0.26230134731250571</v>
+      <c r="M304" s="16">
+        <v>5.1477513517427971E-5</v>
       </c>
       <c r="N304" s="15" t="s">
         <v>461</v>
@@ -18303,8 +18300,8 @@
       <c r="L305" s="13" t="s">
         <v>756</v>
       </c>
-      <c r="M305" s="17">
-        <v>0.32607442791477309</v>
+      <c r="M305" s="14">
+        <v>6.3833736994902454E-5</v>
       </c>
       <c r="N305" s="13" t="s">
         <v>461</v>
@@ -18341,8 +18338,8 @@
       <c r="L306" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="M306" s="18">
-        <v>0.30557678833010371</v>
+      <c r="M306" s="16">
+        <v>5.9631251064185757E-5</v>
       </c>
       <c r="N306" s="15" t="s">
         <v>461</v>
@@ -18379,8 +18376,8 @@
       <c r="L307" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="M307" s="17">
-        <v>0.28596574652273898</v>
+      <c r="M307" s="14">
+        <v>5.5994232743099695E-5</v>
       </c>
       <c r="N307" s="13" t="s">
         <v>461</v>
@@ -18417,8 +18414,8 @@
       <c r="L308" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="M308" s="18">
-        <v>0.27796466108937651</v>
+      <c r="M308" s="16">
+        <v>5.4588462869347749E-5</v>
       </c>
       <c r="N308" s="15" t="s">
         <v>461</v>
@@ -18455,8 +18452,8 @@
       <c r="L309" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="M309" s="17">
-        <v>0.26448738477251799</v>
+      <c r="M309" s="14">
+        <v>5.2076346327414318E-5</v>
       </c>
       <c r="N309" s="13" t="s">
         <v>461</v>
@@ -18493,8 +18490,8 @@
       <c r="L310" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="M310" s="18">
-        <v>0.25511321461964959</v>
+      <c r="M310" s="16">
+        <v>5.0119695350590217E-5</v>
       </c>
       <c r="N310" s="15" t="s">
         <v>461</v>
@@ -18531,8 +18528,8 @@
       <c r="L311" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="M311" s="17">
-        <v>0.2422553767536739</v>
+      <c r="M311" s="14">
+        <v>4.759991634754935E-5</v>
       </c>
       <c r="N311" s="13" t="s">
         <v>461</v>
@@ -18569,8 +18566,8 @@
       <c r="L312" s="15" t="s">
         <v>763</v>
       </c>
-      <c r="M312" s="18">
-        <v>0.2539697796652613</v>
+      <c r="M312" s="16">
+        <v>4.9955982786894792E-5</v>
       </c>
       <c r="N312" s="15" t="s">
         <v>461</v>
@@ -18607,8 +18604,8 @@
       <c r="L313" s="13" t="s">
         <v>764</v>
       </c>
-      <c r="M313" s="17">
-        <v>0.315521802355404</v>
+      <c r="M313" s="14">
+        <v>6.1687073205166356E-5</v>
       </c>
       <c r="N313" s="13" t="s">
         <v>461</v>
@@ -18645,8 +18642,8 @@
       <c r="L314" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="M314" s="18">
-        <v>0.37826620295650981</v>
+      <c r="M314" s="16">
+        <v>7.4397931255212809E-5</v>
       </c>
       <c r="N314" s="15" t="s">
         <v>461</v>
@@ -18683,8 +18680,8 @@
       <c r="L315" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="M315" s="17">
-        <v>0.4127492546086175</v>
+      <c r="M315" s="14">
+        <v>8.0818510503812723E-5</v>
       </c>
       <c r="N315" s="13" t="s">
         <v>461</v>
@@ -18721,8 +18718,8 @@
       <c r="L316" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="M316" s="18">
-        <v>0.48621995167875171</v>
+      <c r="M316" s="16">
+        <v>9.561687494249366E-5</v>
       </c>
       <c r="N316" s="15" t="s">
         <v>461</v>
@@ -18759,8 +18756,8 @@
       <c r="L317" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="M317" s="17">
-        <v>0.47055909491084569</v>
+      <c r="M317" s="14">
+        <v>9.2210836376258683E-5</v>
       </c>
       <c r="N317" s="13" t="s">
         <v>461</v>
@@ -18797,8 +18794,8 @@
       <c r="L318" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="M318" s="18">
-        <v>0.50539462878072516</v>
+      <c r="M318" s="16">
+        <v>9.8711662011917098E-5</v>
       </c>
       <c r="N318" s="15" t="s">
         <v>461</v>
@@ -18835,8 +18832,8 @@
       <c r="L319" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="M319" s="17">
-        <v>0.56701792860612932</v>
+      <c r="M319" s="14">
+        <v>1.1110916526900001E-4</v>
       </c>
       <c r="N319" s="13" t="s">
         <v>461</v>
@@ -18873,8 +18870,8 @@
       <c r="L320" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="M320" s="18">
-        <v>0.63438001320085913</v>
+      <c r="M320" s="16">
+        <v>1.243688679805E-4</v>
       </c>
       <c r="N320" s="15" t="s">
         <v>461</v>
@@ -18911,8 +18908,8 @@
       <c r="L321" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="M321" s="17">
-        <v>0.63948361490742833</v>
+      <c r="M321" s="14">
+        <v>1.2526897375189999E-4</v>
       </c>
       <c r="N321" s="13" t="s">
         <v>461</v>
@@ -18949,8 +18946,8 @@
       <c r="L322" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="M322" s="18">
-        <v>0.64509948906004699</v>
+      <c r="M322" s="16">
+        <v>1.264090306422E-4</v>
       </c>
       <c r="N322" s="15" t="s">
         <v>461</v>
@@ -18987,8 +18984,8 @@
       <c r="L323" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="M323" s="17">
-        <v>0.64881037615402237</v>
+      <c r="M323" s="14">
+        <v>1.2748802545360001E-4</v>
       </c>
       <c r="N323" s="13" t="s">
         <v>461</v>
@@ -19025,8 +19022,8 @@
       <c r="L324" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="M324" s="18">
-        <v>0.62858673809498911</v>
+      <c r="M324" s="16">
+        <v>1.2315770369910001E-4</v>
       </c>
       <c r="N324" s="15" t="s">
         <v>461</v>
@@ -19063,8 +19060,8 @@
       <c r="L325" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="M325" s="17">
-        <v>0.55859048664029831</v>
+      <c r="M325" s="14">
+        <v>1.0881481358630001E-4</v>
       </c>
       <c r="N325" s="13" t="s">
         <v>461</v>
@@ -19101,8 +19098,8 @@
       <c r="L326" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="M326" s="18">
-        <v>0.51188384395489506</v>
+      <c r="M326" s="16">
+        <v>1.004797205729E-4</v>
       </c>
       <c r="N326" s="15" t="s">
         <v>461</v>
@@ -19139,8 +19136,8 @@
       <c r="L327" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="M327" s="17">
-        <v>0.52558620311324911</v>
+      <c r="M327" s="14">
+        <v>1.031760664382E-4</v>
       </c>
       <c r="N327" s="13" t="s">
         <v>461</v>
@@ -19177,8 +19174,8 @@
       <c r="L328" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="M328" s="18">
-        <v>0.57171486910405633</v>
+      <c r="M328" s="16">
+        <v>1.113257059602E-4</v>
       </c>
       <c r="N328" s="15" t="s">
         <v>461</v>
@@ -19215,8 +19212,8 @@
       <c r="L329" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="M329" s="17">
-        <v>0.66648165361551892</v>
+      <c r="M329" s="14">
+        <v>1.311554282596E-4</v>
       </c>
       <c r="N329" s="13" t="s">
         <v>461</v>
@@ -19253,8 +19250,8 @@
       <c r="L330" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="M330" s="18">
-        <v>0.5096910890754518</v>
+      <c r="M330" s="16">
+        <v>1.000857768E-4</v>
       </c>
       <c r="N330" s="15" t="s">
         <v>461</v>
@@ -19291,8 +19288,8 @@
       <c r="L331" s="13" t="s">
         <v>782</v>
       </c>
-      <c r="M331" s="17">
-        <v>4.7311053326142397E-2</v>
+      <c r="M331" s="14">
+        <v>9.4737183401107162E-6</v>
       </c>
       <c r="N331" s="13" t="s">
         <v>461</v>
@@ -19329,8 +19326,8 @@
       <c r="L332" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="M332" s="18">
-        <v>3.3102572608295702E-2</v>
+      <c r="M332" s="16">
+        <v>6.5560382631807483E-6</v>
       </c>
       <c r="N332" s="15" t="s">
         <v>461</v>
@@ -19367,8 +19364,8 @@
       <c r="L333" s="13" t="s">
         <v>784</v>
       </c>
-      <c r="M333" s="17">
-        <v>2.7938955511491202E-2</v>
+      <c r="M333" s="14">
+        <v>5.543294482015992E-6</v>
       </c>
       <c r="N333" s="13" t="s">
         <v>461</v>
@@ -19405,8 +19402,8 @@
       <c r="L334" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="M334" s="18">
-        <v>3.8081172627368098E-2</v>
+      <c r="M334" s="16">
+        <v>7.4975253074991008E-6</v>
       </c>
       <c r="N334" s="15" t="s">
         <v>461</v>
@@ -19443,8 +19440,8 @@
       <c r="L335" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="M335" s="17">
-        <v>2.61607678451093E-2</v>
+      <c r="M335" s="14">
+        <v>5.158409072377279E-6</v>
       </c>
       <c r="N335" s="13" t="s">
         <v>461</v>
@@ -19481,8 +19478,8 @@
       <c r="L336" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="M336" s="18">
-        <v>1.2412720805935799E-2</v>
+      <c r="M336" s="16">
+        <v>2.3773175590506923E-6</v>
       </c>
       <c r="N336" s="15" t="s">
         <v>461</v>
@@ -19519,8 +19516,8 @@
       <c r="L337" s="13" t="s">
         <v>788</v>
       </c>
-      <c r="M337" s="17">
-        <v>1.0204259478045799E-2</v>
+      <c r="M337" s="14">
+        <v>1.972301503911018E-6</v>
       </c>
       <c r="N337" s="13" t="s">
         <v>461</v>
@@ -19557,8 +19554,8 @@
       <c r="L338" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="M338" s="18">
-        <v>1.0070612713828199E-2</v>
+      <c r="M338" s="16">
+        <v>1.4827246858263805E-6</v>
       </c>
       <c r="N338" s="15" t="s">
         <v>461</v>
@@ -19595,8 +19592,8 @@
       <c r="L339" s="13" t="s">
         <v>790</v>
       </c>
-      <c r="M339" s="17">
-        <v>8.0053282738898005E-3</v>
+      <c r="M339" s="14">
+        <v>1.5761152777961791E-6</v>
       </c>
       <c r="N339" s="13" t="s">
         <v>461</v>
@@ -19633,8 +19630,8 @@
       <c r="L340" s="15" t="s">
         <v>791</v>
       </c>
-      <c r="M340" s="18">
-        <v>9.9091948508481E-3</v>
+      <c r="M340" s="16">
+        <v>1.983607764077557E-6</v>
       </c>
       <c r="N340" s="15" t="s">
         <v>461</v>
@@ -19671,8 +19668,8 @@
       <c r="L341" s="13" t="s">
         <v>792</v>
       </c>
-      <c r="M341" s="17">
-        <v>1.10215830869987E-2</v>
+      <c r="M341" s="14">
+        <v>2.013037190796726E-6</v>
       </c>
       <c r="N341" s="13" t="s">
         <v>461</v>
@@ -19709,8 +19706,8 @@
       <c r="L342" s="15" t="s">
         <v>793</v>
       </c>
-      <c r="M342" s="18">
-        <v>2.9577534579555299E-2</v>
+      <c r="M342" s="16">
+        <v>5.6921670416468186E-6</v>
       </c>
       <c r="N342" s="15" t="s">
         <v>461</v>
@@ -19747,8 +19744,8 @@
       <c r="L343" s="13" t="s">
         <v>794</v>
       </c>
-      <c r="M343" s="17">
-        <v>6.5922626989621605E-2</v>
+      <c r="M343" s="14">
+        <v>1.2719467913064262E-5</v>
       </c>
       <c r="N343" s="13" t="s">
         <v>461</v>
@@ -19785,8 +19782,8 @@
       <c r="L344" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="M344" s="18">
-        <v>7.3435692829184399E-2</v>
+      <c r="M344" s="16">
+        <v>1.4241278222061497E-5</v>
       </c>
       <c r="N344" s="15" t="s">
         <v>461</v>
@@ -19823,8 +19820,8 @@
       <c r="L345" s="13" t="s">
         <v>796</v>
       </c>
-      <c r="M345" s="17">
-        <v>3.44373748003695E-2</v>
+      <c r="M345" s="14">
+        <v>6.6250973198352368E-6</v>
       </c>
       <c r="N345" s="13" t="s">
         <v>461</v>
@@ -19861,8 +19858,8 @@
       <c r="L346" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="M346" s="18">
-        <v>7.2892274271785004E-2</v>
+      <c r="M346" s="16">
+        <v>1.4135402252454342E-5</v>
       </c>
       <c r="N346" s="15" t="s">
         <v>461</v>
@@ -19899,8 +19896,8 @@
       <c r="L347" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="M347" s="17">
-        <v>8.1614010336493806E-2</v>
+      <c r="M347" s="14">
+        <v>1.5892705852307918E-5</v>
       </c>
       <c r="N347" s="13" t="s">
         <v>461</v>
@@ -19937,8 +19934,8 @@
       <c r="L348" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="M348" s="18">
-        <v>0.12889238325555821</v>
+      <c r="M348" s="16">
+        <v>2.5141509608241787E-5</v>
       </c>
       <c r="N348" s="15" t="s">
         <v>461</v>
@@ -19975,8 +19972,8 @@
       <c r="L349" s="13" t="s">
         <v>800</v>
       </c>
-      <c r="M349" s="17">
-        <v>0.22091201925899309</v>
+      <c r="M349" s="14">
+        <v>4.3390369476811589E-5</v>
       </c>
       <c r="N349" s="13" t="s">
         <v>461</v>
@@ -20013,8 +20010,8 @@
       <c r="L350" s="15" t="s">
         <v>801</v>
       </c>
-      <c r="M350" s="18">
-        <v>0.32114279331151679</v>
+      <c r="M350" s="16">
+        <v>6.2705637431624062E-5</v>
       </c>
       <c r="N350" s="15" t="s">
         <v>461</v>
@@ -20051,8 +20048,8 @@
       <c r="L351" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="M351" s="17">
-        <v>0.47961714527022059</v>
+      <c r="M351" s="14">
+        <v>9.3977676606068399E-5</v>
       </c>
       <c r="N351" s="13" t="s">
         <v>461</v>
@@ -20089,8 +20086,8 @@
       <c r="L352" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="M352" s="18">
-        <v>0.64621442599019285</v>
+      <c r="M352" s="16">
+        <v>1.281767544386E-4</v>
       </c>
       <c r="N352" s="15" t="s">
         <v>461</v>
@@ -20127,8 +20124,8 @@
       <c r="L353" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="M353" s="17">
-        <v>0.74759204996441109</v>
+      <c r="M353" s="14">
+        <v>1.5051836823560001E-4</v>
       </c>
       <c r="N353" s="13" t="s">
         <v>461</v>
@@ -20165,8 +20162,8 @@
       <c r="L354" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="M354" s="18">
-        <v>0.91635861996393042</v>
+      <c r="M354" s="16">
+        <v>1.896103592531E-4</v>
       </c>
       <c r="N354" s="15" t="s">
         <v>461</v>
@@ -20203,8 +20200,8 @@
       <c r="L355" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="M355" s="17">
-        <v>185.36505163144503</v>
+      <c r="M355" s="14">
+        <v>4.0246909618932167E-2</v>
       </c>
       <c r="N355" s="13" t="s">
         <v>461</v>
@@ -20241,8 +20238,8 @@
       <c r="L356" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="M356" s="18">
-        <v>23.097090747404433</v>
+      <c r="M356" s="16">
+        <v>5.1423390814532679E-3</v>
       </c>
       <c r="N356" s="15" t="s">
         <v>461</v>
@@ -20279,8 +20276,8 @@
       <c r="L357" s="13" t="s">
         <v>808</v>
       </c>
-      <c r="M357" s="17">
-        <v>163.19302643249728</v>
+      <c r="M357" s="14">
+        <v>3.5484320483246838E-2</v>
       </c>
       <c r="N357" s="13" t="s">
         <v>461</v>
@@ -20317,8 +20314,8 @@
       <c r="L358" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="M358" s="18">
-        <v>183.54277571410262</v>
+      <c r="M358" s="16">
+        <v>3.973452383118508E-2</v>
       </c>
       <c r="N358" s="15" t="s">
         <v>461</v>
@@ -20355,8 +20352,8 @@
       <c r="L359" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="M359" s="17">
-        <v>1</v>
+      <c r="M359" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N359" s="13" t="s">
         <v>461</v>
@@ -20393,8 +20390,8 @@
       <c r="L360" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="M360" s="18">
-        <v>1</v>
+      <c r="M360" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N360" s="15" t="s">
         <v>461</v>
@@ -20431,8 +20428,8 @@
       <c r="L361" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="M361" s="17">
-        <v>1</v>
+      <c r="M361" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N361" s="13" t="s">
         <v>461</v>
@@ -20469,8 +20466,8 @@
       <c r="L362" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="M362" s="18">
-        <v>1</v>
+      <c r="M362" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N362" s="15" t="s">
         <v>461</v>
@@ -20507,8 +20504,8 @@
       <c r="L363" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="M363" s="17">
-        <v>1</v>
+      <c r="M363" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N363" s="13" t="s">
         <v>461</v>
@@ -20545,8 +20542,8 @@
       <c r="L364" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="M364" s="18">
-        <v>1</v>
+      <c r="M364" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N364" s="15" t="s">
         <v>461</v>
@@ -20583,8 +20580,8 @@
       <c r="L365" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="M365" s="17">
-        <v>0.86161720340781334</v>
+      <c r="M365" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N365" s="13" t="s">
         <v>461</v>
@@ -20621,8 +20618,8 @@
       <c r="L366" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="M366" s="18">
-        <v>0.86161720340781334</v>
+      <c r="M366" s="16">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N366" s="15" t="s">
         <v>461</v>
@@ -20659,8 +20656,8 @@
       <c r="L367" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="M367" s="17">
-        <v>0.86161720340781334</v>
+      <c r="M367" s="14">
+        <v>1.9124762777739999E-4</v>
       </c>
       <c r="N367" s="13" t="s">
         <v>461</v>
@@ -20697,8 +20694,8 @@
       <c r="L368" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="M368" s="18">
-        <v>0.86161720340781334</v>
+      <c r="M368" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N368" s="15" t="s">
         <v>461</v>
@@ -20735,8 +20732,8 @@
       <c r="L369" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="M369" s="17">
-        <v>0.86161720340781334</v>
+      <c r="M369" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N369" s="13" t="s">
         <v>461</v>
@@ -20773,8 +20770,8 @@
       <c r="L370" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="M370" s="18">
-        <v>1</v>
+      <c r="M370" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N370" s="15" t="s">
         <v>461</v>
@@ -20811,8 +20808,8 @@
       <c r="L371" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="M371" s="17">
-        <v>1</v>
+      <c r="M371" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N371" s="13" t="s">
         <v>461</v>
@@ -20849,8 +20846,8 @@
       <c r="L372" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="M372" s="18">
-        <v>1</v>
+      <c r="M372" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N372" s="15" t="s">
         <v>461</v>
@@ -20887,8 +20884,8 @@
       <c r="L373" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="M373" s="17">
-        <v>1</v>
+      <c r="M373" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N373" s="13" t="s">
         <v>461</v>
@@ -20925,8 +20922,8 @@
       <c r="L374" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="M374" s="18">
-        <v>1</v>
+      <c r="M374" s="16">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N374" s="15" t="s">
         <v>461</v>
@@ -20963,8 +20960,8 @@
       <c r="L375" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="M375" s="17">
-        <v>1</v>
+      <c r="M375" s="14">
+        <v>2.2200340086989999E-4</v>
       </c>
       <c r="N375" s="13" t="s">
         <v>461</v>
@@ -21001,8 +20998,8 @@
       <c r="L376" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="M376" s="18">
-        <v>1</v>
+      <c r="M376" s="16">
+        <v>2.220031513792E-4</v>
       </c>
       <c r="N376" s="15" t="s">
         <v>461</v>
@@ -21039,8 +21036,8 @@
       <c r="L377" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="M377" s="17">
-        <v>1</v>
+      <c r="M377" s="14">
+        <v>2.2193925243999999E-4</v>
       </c>
       <c r="N377" s="13" t="s">
         <v>461</v>
@@ -21077,8 +21074,8 @@
       <c r="L378" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="M378" s="18">
-        <v>0.99519584608684342</v>
+      <c r="M378" s="16">
+        <v>2.2047603816469999E-4</v>
       </c>
       <c r="N378" s="15" t="s">
         <v>461</v>
@@ -21115,8 +21112,8 @@
       <c r="L379" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="M379" s="17">
-        <v>0.97323228126513139</v>
+      <c r="M379" s="14">
+        <v>2.096494333247E-4</v>
       </c>
       <c r="N379" s="13" t="s">
         <v>461</v>
@@ -21153,8 +21150,8 @@
       <c r="L380" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="M380" s="18">
-        <v>0.99044114240909076</v>
+      <c r="M380" s="16">
+        <v>2.129813729659E-4</v>
       </c>
       <c r="N380" s="15" t="s">
         <v>461</v>
@@ -21191,8 +21188,8 @@
       <c r="L381" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="M381" s="17">
-        <v>0.99863761271506601</v>
+      <c r="M381" s="14">
+        <v>2.2136679166669999E-4</v>
       </c>
       <c r="N381" s="13" t="s">
         <v>461</v>
@@ -21229,8 +21226,8 @@
       <c r="L382" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="M382" s="18">
-        <v>0.99467755468157082</v>
+      <c r="M382" s="16">
+        <v>2.2033693195879999E-4</v>
       </c>
       <c r="N382" s="15" t="s">
         <v>461</v>
@@ -21249,7 +21246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13D308D-4CCA-45CA-95A8-4AB61DE41B99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D983E-7E5C-46DB-AF2F-A407D2157406}">
   <dimension ref="B2:O747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
